--- a/data/Excel/1.5.xlsx
+++ b/data/Excel/1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64814ACC-CCE1-45A5-8781-66BE62E04315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBEB9C1-E6CA-4D9A-86D8-96BABF220A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="3" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>код ( в соответствии с таблицами 6 и 7 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА)</t>
   </si>
   <si>
-    <t>Примечания:</t>
-  </si>
-  <si>
     <t>№ строки</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
   </si>
   <si>
     <t>Электронная почта</t>
+  </si>
+  <si>
+    <t>Примечание:</t>
   </si>
 </sst>
 </file>
@@ -934,6 +934,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -967,122 +1018,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1392,40 +1392,40 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -1441,236 +1441,236 @@
     </row>
     <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="52"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="52"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="53"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="52"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="65"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="65"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="65"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="52"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="65"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="52"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="66"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="52"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="66"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="62"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="4"/>
@@ -1727,6 +1727,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="A22:A29"/>
@@ -1738,22 +1754,6 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:AY46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2324,14 +2324,14 @@
       <c r="X2" s="68"/>
     </row>
     <row r="3" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="24" t="s">
         <v>39</v>
       </c>
@@ -2354,14 +2354,14 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="24" t="s">
         <v>39</v>
       </c>
@@ -2384,61 +2384,61 @@
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:51" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="7" spans="1:51" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88" t="s">
+      <c r="M7" s="74"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="75" t="s">
+      <c r="P7" s="73"/>
+      <c r="Q7" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="78" t="s">
+      <c r="R7" s="80"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="79"/>
-      <c r="V7" s="80" t="s">
+      <c r="U7" s="73"/>
+      <c r="V7" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="80" t="s">
+      <c r="W7" s="75" t="s">
         <v>52</v>
       </c>
       <c r="X7" s="82" t="s">
@@ -2446,7 +2446,7 @@
       </c>
     </row>
     <row r="8" spans="1:51" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="85"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="28" t="s">
         <v>54</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="J8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="81"/>
+      <c r="K8" s="76"/>
       <c r="L8" s="28" t="s">
         <v>63</v>
       </c>
@@ -2505,8 +2505,8 @@
       <c r="U8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
       <c r="X8" s="83"/>
     </row>
     <row r="9" spans="1:51" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2692,7 +2692,7 @@
     <row r="12" spans="1:51" s="31" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
     <row r="13" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -2705,34 +2705,34 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -2757,27 +2757,27 @@
       <c r="AI15" s="25"/>
     </row>
     <row r="16" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
@@ -2792,26 +2792,26 @@
     </row>
     <row r="17" spans="1:35" s="31" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="68"/>
-      <c r="B17" s="67"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="68"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="67"/>
+      <c r="O17" s="87"/>
       <c r="P17" s="68"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="35"/>
@@ -2835,17 +2835,17 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
@@ -2860,23 +2860,23 @@
     </row>
     <row r="19" spans="1:35" s="31" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="31" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="37"/>
     </row>
@@ -2885,15 +2885,15 @@
         <v>13</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="31" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="31" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2921,6 +2921,26 @@
     <row r="46" s="31" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:J14"/>
@@ -2937,26 +2957,6 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:X16"/>
-    <mergeCell ref="R17:X17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>

--- a/data/Excel/1.5.xlsx
+++ b/data/Excel/1.5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D16E5A-B857-4879-A378-34CB9389343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -298,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -668,19 +667,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -839,6 +825,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -846,7 +895,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -858,7 +907,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -867,7 +916,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -895,29 +944,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -959,7 +990,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -971,6 +1002,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -986,9 +1074,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,168 +1083,165 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
-    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{DE2A6BC7-A8CB-4743-92C8-AC8092EF1F84}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{AC7EAEC3-7B9B-4A91-AE4D-D641A4DF5829}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1436,73 +1518,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F414ECD6-5201-41D2-AABB-B56EEB65A402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.89453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.47265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="40.3125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="37.47265625" style="14" customWidth="1"/>
-    <col min="7" max="9" width="10.578125" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="14"/>
+    <col min="1" max="1" width="16.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="14" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="63" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="63" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1513,7 +1595,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
         <v>31</v>
@@ -1523,327 +1605,377 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="64" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="69" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="67"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="69" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="67"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="67"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="68"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="58" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="49" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="98"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="99"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="49"/>
-      <c r="B18" s="53" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="99"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="49"/>
-      <c r="B19" s="53" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="99"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="49"/>
-      <c r="B20" s="53" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="99"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="49"/>
-      <c r="B21" s="53" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="99"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="49"/>
-      <c r="B22" s="55" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="99"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="49"/>
-      <c r="B23" s="55" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="99"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="60"/>
-      <c r="B24" s="47" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="99"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="48" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="101"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="49"/>
-      <c r="B26" s="53" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="100"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="49"/>
-      <c r="B28" s="53" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="100"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="49"/>
-      <c r="B29" s="53" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="100"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="49"/>
-      <c r="B30" s="55" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="100"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="49"/>
-      <c r="B31" s="55" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="99"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="50"/>
-      <c r="B32" s="57" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="99"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
+      <c r="B32" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="44" t="s">
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="101"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="32" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="29" t="s">
+    <row r="36" spans="1:9" s="26" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:9" s="32" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="33" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" s="26" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1855,534 +1987,556 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6CB15F-77DE-4A6F-8A85-53C3531D9F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="10.578125" style="2" customWidth="1"/>
-    <col min="25" max="262" width="9.15625" style="2"/>
-    <col min="263" max="263" width="10.68359375" style="2" customWidth="1"/>
-    <col min="264" max="266" width="9.15625" style="2"/>
-    <col min="267" max="267" width="19.68359375" style="2" customWidth="1"/>
-    <col min="268" max="270" width="9.15625" style="2"/>
+    <col min="1" max="24" width="10.5703125" style="2" customWidth="1"/>
+    <col min="25" max="262" width="9.140625" style="2"/>
+    <col min="263" max="263" width="10.7109375" style="2" customWidth="1"/>
+    <col min="264" max="266" width="9.140625" style="2"/>
+    <col min="267" max="267" width="19.7109375" style="2" customWidth="1"/>
+    <col min="268" max="270" width="9.140625" style="2"/>
     <col min="271" max="271" width="16" style="2" customWidth="1"/>
-    <col min="272" max="277" width="9.15625" style="2"/>
+    <col min="272" max="277" width="9.140625" style="2"/>
     <col min="278" max="278" width="11" style="2" customWidth="1"/>
-    <col min="279" max="518" width="9.15625" style="2"/>
-    <col min="519" max="519" width="10.68359375" style="2" customWidth="1"/>
-    <col min="520" max="522" width="9.15625" style="2"/>
-    <col min="523" max="523" width="19.68359375" style="2" customWidth="1"/>
-    <col min="524" max="526" width="9.15625" style="2"/>
+    <col min="279" max="518" width="9.140625" style="2"/>
+    <col min="519" max="519" width="10.7109375" style="2" customWidth="1"/>
+    <col min="520" max="522" width="9.140625" style="2"/>
+    <col min="523" max="523" width="19.7109375" style="2" customWidth="1"/>
+    <col min="524" max="526" width="9.140625" style="2"/>
     <col min="527" max="527" width="16" style="2" customWidth="1"/>
-    <col min="528" max="533" width="9.15625" style="2"/>
+    <col min="528" max="533" width="9.140625" style="2"/>
     <col min="534" max="534" width="11" style="2" customWidth="1"/>
-    <col min="535" max="774" width="9.15625" style="2"/>
-    <col min="775" max="775" width="10.68359375" style="2" customWidth="1"/>
-    <col min="776" max="778" width="9.15625" style="2"/>
-    <col min="779" max="779" width="19.68359375" style="2" customWidth="1"/>
-    <col min="780" max="782" width="9.15625" style="2"/>
+    <col min="535" max="774" width="9.140625" style="2"/>
+    <col min="775" max="775" width="10.7109375" style="2" customWidth="1"/>
+    <col min="776" max="778" width="9.140625" style="2"/>
+    <col min="779" max="779" width="19.7109375" style="2" customWidth="1"/>
+    <col min="780" max="782" width="9.140625" style="2"/>
     <col min="783" max="783" width="16" style="2" customWidth="1"/>
-    <col min="784" max="789" width="9.15625" style="2"/>
+    <col min="784" max="789" width="9.140625" style="2"/>
     <col min="790" max="790" width="11" style="2" customWidth="1"/>
-    <col min="791" max="1030" width="9.15625" style="2"/>
-    <col min="1031" max="1031" width="10.68359375" style="2" customWidth="1"/>
-    <col min="1032" max="1034" width="9.15625" style="2"/>
-    <col min="1035" max="1035" width="19.68359375" style="2" customWidth="1"/>
-    <col min="1036" max="1038" width="9.15625" style="2"/>
+    <col min="791" max="1030" width="9.140625" style="2"/>
+    <col min="1031" max="1031" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1032" max="1034" width="9.140625" style="2"/>
+    <col min="1035" max="1035" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1036" max="1038" width="9.140625" style="2"/>
     <col min="1039" max="1039" width="16" style="2" customWidth="1"/>
-    <col min="1040" max="1045" width="9.15625" style="2"/>
+    <col min="1040" max="1045" width="9.140625" style="2"/>
     <col min="1046" max="1046" width="11" style="2" customWidth="1"/>
-    <col min="1047" max="1286" width="9.15625" style="2"/>
-    <col min="1287" max="1287" width="10.68359375" style="2" customWidth="1"/>
-    <col min="1288" max="1290" width="9.15625" style="2"/>
-    <col min="1291" max="1291" width="19.68359375" style="2" customWidth="1"/>
-    <col min="1292" max="1294" width="9.15625" style="2"/>
+    <col min="1047" max="1286" width="9.140625" style="2"/>
+    <col min="1287" max="1287" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1288" max="1290" width="9.140625" style="2"/>
+    <col min="1291" max="1291" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1292" max="1294" width="9.140625" style="2"/>
     <col min="1295" max="1295" width="16" style="2" customWidth="1"/>
-    <col min="1296" max="1301" width="9.15625" style="2"/>
+    <col min="1296" max="1301" width="9.140625" style="2"/>
     <col min="1302" max="1302" width="11" style="2" customWidth="1"/>
-    <col min="1303" max="1542" width="9.15625" style="2"/>
-    <col min="1543" max="1543" width="10.68359375" style="2" customWidth="1"/>
-    <col min="1544" max="1546" width="9.15625" style="2"/>
-    <col min="1547" max="1547" width="19.68359375" style="2" customWidth="1"/>
-    <col min="1548" max="1550" width="9.15625" style="2"/>
+    <col min="1303" max="1542" width="9.140625" style="2"/>
+    <col min="1543" max="1543" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1544" max="1546" width="9.140625" style="2"/>
+    <col min="1547" max="1547" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1548" max="1550" width="9.140625" style="2"/>
     <col min="1551" max="1551" width="16" style="2" customWidth="1"/>
-    <col min="1552" max="1557" width="9.15625" style="2"/>
+    <col min="1552" max="1557" width="9.140625" style="2"/>
     <col min="1558" max="1558" width="11" style="2" customWidth="1"/>
-    <col min="1559" max="1798" width="9.15625" style="2"/>
-    <col min="1799" max="1799" width="10.68359375" style="2" customWidth="1"/>
-    <col min="1800" max="1802" width="9.15625" style="2"/>
-    <col min="1803" max="1803" width="19.68359375" style="2" customWidth="1"/>
-    <col min="1804" max="1806" width="9.15625" style="2"/>
+    <col min="1559" max="1798" width="9.140625" style="2"/>
+    <col min="1799" max="1799" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1800" max="1802" width="9.140625" style="2"/>
+    <col min="1803" max="1803" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1804" max="1806" width="9.140625" style="2"/>
     <col min="1807" max="1807" width="16" style="2" customWidth="1"/>
-    <col min="1808" max="1813" width="9.15625" style="2"/>
+    <col min="1808" max="1813" width="9.140625" style="2"/>
     <col min="1814" max="1814" width="11" style="2" customWidth="1"/>
-    <col min="1815" max="2054" width="9.15625" style="2"/>
-    <col min="2055" max="2055" width="10.68359375" style="2" customWidth="1"/>
-    <col min="2056" max="2058" width="9.15625" style="2"/>
-    <col min="2059" max="2059" width="19.68359375" style="2" customWidth="1"/>
-    <col min="2060" max="2062" width="9.15625" style="2"/>
+    <col min="1815" max="2054" width="9.140625" style="2"/>
+    <col min="2055" max="2055" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2056" max="2058" width="9.140625" style="2"/>
+    <col min="2059" max="2059" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2060" max="2062" width="9.140625" style="2"/>
     <col min="2063" max="2063" width="16" style="2" customWidth="1"/>
-    <col min="2064" max="2069" width="9.15625" style="2"/>
+    <col min="2064" max="2069" width="9.140625" style="2"/>
     <col min="2070" max="2070" width="11" style="2" customWidth="1"/>
-    <col min="2071" max="2310" width="9.15625" style="2"/>
-    <col min="2311" max="2311" width="10.68359375" style="2" customWidth="1"/>
-    <col min="2312" max="2314" width="9.15625" style="2"/>
-    <col min="2315" max="2315" width="19.68359375" style="2" customWidth="1"/>
-    <col min="2316" max="2318" width="9.15625" style="2"/>
+    <col min="2071" max="2310" width="9.140625" style="2"/>
+    <col min="2311" max="2311" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2312" max="2314" width="9.140625" style="2"/>
+    <col min="2315" max="2315" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2316" max="2318" width="9.140625" style="2"/>
     <col min="2319" max="2319" width="16" style="2" customWidth="1"/>
-    <col min="2320" max="2325" width="9.15625" style="2"/>
+    <col min="2320" max="2325" width="9.140625" style="2"/>
     <col min="2326" max="2326" width="11" style="2" customWidth="1"/>
-    <col min="2327" max="2566" width="9.15625" style="2"/>
-    <col min="2567" max="2567" width="10.68359375" style="2" customWidth="1"/>
-    <col min="2568" max="2570" width="9.15625" style="2"/>
-    <col min="2571" max="2571" width="19.68359375" style="2" customWidth="1"/>
-    <col min="2572" max="2574" width="9.15625" style="2"/>
+    <col min="2327" max="2566" width="9.140625" style="2"/>
+    <col min="2567" max="2567" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2568" max="2570" width="9.140625" style="2"/>
+    <col min="2571" max="2571" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2572" max="2574" width="9.140625" style="2"/>
     <col min="2575" max="2575" width="16" style="2" customWidth="1"/>
-    <col min="2576" max="2581" width="9.15625" style="2"/>
+    <col min="2576" max="2581" width="9.140625" style="2"/>
     <col min="2582" max="2582" width="11" style="2" customWidth="1"/>
-    <col min="2583" max="2822" width="9.15625" style="2"/>
-    <col min="2823" max="2823" width="10.68359375" style="2" customWidth="1"/>
-    <col min="2824" max="2826" width="9.15625" style="2"/>
-    <col min="2827" max="2827" width="19.68359375" style="2" customWidth="1"/>
-    <col min="2828" max="2830" width="9.15625" style="2"/>
+    <col min="2583" max="2822" width="9.140625" style="2"/>
+    <col min="2823" max="2823" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2824" max="2826" width="9.140625" style="2"/>
+    <col min="2827" max="2827" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2828" max="2830" width="9.140625" style="2"/>
     <col min="2831" max="2831" width="16" style="2" customWidth="1"/>
-    <col min="2832" max="2837" width="9.15625" style="2"/>
+    <col min="2832" max="2837" width="9.140625" style="2"/>
     <col min="2838" max="2838" width="11" style="2" customWidth="1"/>
-    <col min="2839" max="3078" width="9.15625" style="2"/>
-    <col min="3079" max="3079" width="10.68359375" style="2" customWidth="1"/>
-    <col min="3080" max="3082" width="9.15625" style="2"/>
-    <col min="3083" max="3083" width="19.68359375" style="2" customWidth="1"/>
-    <col min="3084" max="3086" width="9.15625" style="2"/>
+    <col min="2839" max="3078" width="9.140625" style="2"/>
+    <col min="3079" max="3079" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3080" max="3082" width="9.140625" style="2"/>
+    <col min="3083" max="3083" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3084" max="3086" width="9.140625" style="2"/>
     <col min="3087" max="3087" width="16" style="2" customWidth="1"/>
-    <col min="3088" max="3093" width="9.15625" style="2"/>
+    <col min="3088" max="3093" width="9.140625" style="2"/>
     <col min="3094" max="3094" width="11" style="2" customWidth="1"/>
-    <col min="3095" max="3334" width="9.15625" style="2"/>
-    <col min="3335" max="3335" width="10.68359375" style="2" customWidth="1"/>
-    <col min="3336" max="3338" width="9.15625" style="2"/>
-    <col min="3339" max="3339" width="19.68359375" style="2" customWidth="1"/>
-    <col min="3340" max="3342" width="9.15625" style="2"/>
+    <col min="3095" max="3334" width="9.140625" style="2"/>
+    <col min="3335" max="3335" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3336" max="3338" width="9.140625" style="2"/>
+    <col min="3339" max="3339" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3340" max="3342" width="9.140625" style="2"/>
     <col min="3343" max="3343" width="16" style="2" customWidth="1"/>
-    <col min="3344" max="3349" width="9.15625" style="2"/>
+    <col min="3344" max="3349" width="9.140625" style="2"/>
     <col min="3350" max="3350" width="11" style="2" customWidth="1"/>
-    <col min="3351" max="3590" width="9.15625" style="2"/>
-    <col min="3591" max="3591" width="10.68359375" style="2" customWidth="1"/>
-    <col min="3592" max="3594" width="9.15625" style="2"/>
-    <col min="3595" max="3595" width="19.68359375" style="2" customWidth="1"/>
-    <col min="3596" max="3598" width="9.15625" style="2"/>
+    <col min="3351" max="3590" width="9.140625" style="2"/>
+    <col min="3591" max="3591" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3592" max="3594" width="9.140625" style="2"/>
+    <col min="3595" max="3595" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3596" max="3598" width="9.140625" style="2"/>
     <col min="3599" max="3599" width="16" style="2" customWidth="1"/>
-    <col min="3600" max="3605" width="9.15625" style="2"/>
+    <col min="3600" max="3605" width="9.140625" style="2"/>
     <col min="3606" max="3606" width="11" style="2" customWidth="1"/>
-    <col min="3607" max="3846" width="9.15625" style="2"/>
-    <col min="3847" max="3847" width="10.68359375" style="2" customWidth="1"/>
-    <col min="3848" max="3850" width="9.15625" style="2"/>
-    <col min="3851" max="3851" width="19.68359375" style="2" customWidth="1"/>
-    <col min="3852" max="3854" width="9.15625" style="2"/>
+    <col min="3607" max="3846" width="9.140625" style="2"/>
+    <col min="3847" max="3847" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3848" max="3850" width="9.140625" style="2"/>
+    <col min="3851" max="3851" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3852" max="3854" width="9.140625" style="2"/>
     <col min="3855" max="3855" width="16" style="2" customWidth="1"/>
-    <col min="3856" max="3861" width="9.15625" style="2"/>
+    <col min="3856" max="3861" width="9.140625" style="2"/>
     <col min="3862" max="3862" width="11" style="2" customWidth="1"/>
-    <col min="3863" max="4102" width="9.15625" style="2"/>
-    <col min="4103" max="4103" width="10.68359375" style="2" customWidth="1"/>
-    <col min="4104" max="4106" width="9.15625" style="2"/>
-    <col min="4107" max="4107" width="19.68359375" style="2" customWidth="1"/>
-    <col min="4108" max="4110" width="9.15625" style="2"/>
+    <col min="3863" max="4102" width="9.140625" style="2"/>
+    <col min="4103" max="4103" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4104" max="4106" width="9.140625" style="2"/>
+    <col min="4107" max="4107" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4108" max="4110" width="9.140625" style="2"/>
     <col min="4111" max="4111" width="16" style="2" customWidth="1"/>
-    <col min="4112" max="4117" width="9.15625" style="2"/>
+    <col min="4112" max="4117" width="9.140625" style="2"/>
     <col min="4118" max="4118" width="11" style="2" customWidth="1"/>
-    <col min="4119" max="4358" width="9.15625" style="2"/>
-    <col min="4359" max="4359" width="10.68359375" style="2" customWidth="1"/>
-    <col min="4360" max="4362" width="9.15625" style="2"/>
-    <col min="4363" max="4363" width="19.68359375" style="2" customWidth="1"/>
-    <col min="4364" max="4366" width="9.15625" style="2"/>
+    <col min="4119" max="4358" width="9.140625" style="2"/>
+    <col min="4359" max="4359" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4360" max="4362" width="9.140625" style="2"/>
+    <col min="4363" max="4363" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4364" max="4366" width="9.140625" style="2"/>
     <col min="4367" max="4367" width="16" style="2" customWidth="1"/>
-    <col min="4368" max="4373" width="9.15625" style="2"/>
+    <col min="4368" max="4373" width="9.140625" style="2"/>
     <col min="4374" max="4374" width="11" style="2" customWidth="1"/>
-    <col min="4375" max="4614" width="9.15625" style="2"/>
-    <col min="4615" max="4615" width="10.68359375" style="2" customWidth="1"/>
-    <col min="4616" max="4618" width="9.15625" style="2"/>
-    <col min="4619" max="4619" width="19.68359375" style="2" customWidth="1"/>
-    <col min="4620" max="4622" width="9.15625" style="2"/>
+    <col min="4375" max="4614" width="9.140625" style="2"/>
+    <col min="4615" max="4615" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4616" max="4618" width="9.140625" style="2"/>
+    <col min="4619" max="4619" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4620" max="4622" width="9.140625" style="2"/>
     <col min="4623" max="4623" width="16" style="2" customWidth="1"/>
-    <col min="4624" max="4629" width="9.15625" style="2"/>
+    <col min="4624" max="4629" width="9.140625" style="2"/>
     <col min="4630" max="4630" width="11" style="2" customWidth="1"/>
-    <col min="4631" max="4870" width="9.15625" style="2"/>
-    <col min="4871" max="4871" width="10.68359375" style="2" customWidth="1"/>
-    <col min="4872" max="4874" width="9.15625" style="2"/>
-    <col min="4875" max="4875" width="19.68359375" style="2" customWidth="1"/>
-    <col min="4876" max="4878" width="9.15625" style="2"/>
+    <col min="4631" max="4870" width="9.140625" style="2"/>
+    <col min="4871" max="4871" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4872" max="4874" width="9.140625" style="2"/>
+    <col min="4875" max="4875" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4876" max="4878" width="9.140625" style="2"/>
     <col min="4879" max="4879" width="16" style="2" customWidth="1"/>
-    <col min="4880" max="4885" width="9.15625" style="2"/>
+    <col min="4880" max="4885" width="9.140625" style="2"/>
     <col min="4886" max="4886" width="11" style="2" customWidth="1"/>
-    <col min="4887" max="5126" width="9.15625" style="2"/>
-    <col min="5127" max="5127" width="10.68359375" style="2" customWidth="1"/>
-    <col min="5128" max="5130" width="9.15625" style="2"/>
-    <col min="5131" max="5131" width="19.68359375" style="2" customWidth="1"/>
-    <col min="5132" max="5134" width="9.15625" style="2"/>
+    <col min="4887" max="5126" width="9.140625" style="2"/>
+    <col min="5127" max="5127" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5128" max="5130" width="9.140625" style="2"/>
+    <col min="5131" max="5131" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5132" max="5134" width="9.140625" style="2"/>
     <col min="5135" max="5135" width="16" style="2" customWidth="1"/>
-    <col min="5136" max="5141" width="9.15625" style="2"/>
+    <col min="5136" max="5141" width="9.140625" style="2"/>
     <col min="5142" max="5142" width="11" style="2" customWidth="1"/>
-    <col min="5143" max="5382" width="9.15625" style="2"/>
-    <col min="5383" max="5383" width="10.68359375" style="2" customWidth="1"/>
-    <col min="5384" max="5386" width="9.15625" style="2"/>
-    <col min="5387" max="5387" width="19.68359375" style="2" customWidth="1"/>
-    <col min="5388" max="5390" width="9.15625" style="2"/>
+    <col min="5143" max="5382" width="9.140625" style="2"/>
+    <col min="5383" max="5383" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5384" max="5386" width="9.140625" style="2"/>
+    <col min="5387" max="5387" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5388" max="5390" width="9.140625" style="2"/>
     <col min="5391" max="5391" width="16" style="2" customWidth="1"/>
-    <col min="5392" max="5397" width="9.15625" style="2"/>
+    <col min="5392" max="5397" width="9.140625" style="2"/>
     <col min="5398" max="5398" width="11" style="2" customWidth="1"/>
-    <col min="5399" max="5638" width="9.15625" style="2"/>
-    <col min="5639" max="5639" width="10.68359375" style="2" customWidth="1"/>
-    <col min="5640" max="5642" width="9.15625" style="2"/>
-    <col min="5643" max="5643" width="19.68359375" style="2" customWidth="1"/>
-    <col min="5644" max="5646" width="9.15625" style="2"/>
+    <col min="5399" max="5638" width="9.140625" style="2"/>
+    <col min="5639" max="5639" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5640" max="5642" width="9.140625" style="2"/>
+    <col min="5643" max="5643" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5644" max="5646" width="9.140625" style="2"/>
     <col min="5647" max="5647" width="16" style="2" customWidth="1"/>
-    <col min="5648" max="5653" width="9.15625" style="2"/>
+    <col min="5648" max="5653" width="9.140625" style="2"/>
     <col min="5654" max="5654" width="11" style="2" customWidth="1"/>
-    <col min="5655" max="5894" width="9.15625" style="2"/>
-    <col min="5895" max="5895" width="10.68359375" style="2" customWidth="1"/>
-    <col min="5896" max="5898" width="9.15625" style="2"/>
-    <col min="5899" max="5899" width="19.68359375" style="2" customWidth="1"/>
-    <col min="5900" max="5902" width="9.15625" style="2"/>
+    <col min="5655" max="5894" width="9.140625" style="2"/>
+    <col min="5895" max="5895" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5896" max="5898" width="9.140625" style="2"/>
+    <col min="5899" max="5899" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5900" max="5902" width="9.140625" style="2"/>
     <col min="5903" max="5903" width="16" style="2" customWidth="1"/>
-    <col min="5904" max="5909" width="9.15625" style="2"/>
+    <col min="5904" max="5909" width="9.140625" style="2"/>
     <col min="5910" max="5910" width="11" style="2" customWidth="1"/>
-    <col min="5911" max="6150" width="9.15625" style="2"/>
-    <col min="6151" max="6151" width="10.68359375" style="2" customWidth="1"/>
-    <col min="6152" max="6154" width="9.15625" style="2"/>
-    <col min="6155" max="6155" width="19.68359375" style="2" customWidth="1"/>
-    <col min="6156" max="6158" width="9.15625" style="2"/>
+    <col min="5911" max="6150" width="9.140625" style="2"/>
+    <col min="6151" max="6151" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6152" max="6154" width="9.140625" style="2"/>
+    <col min="6155" max="6155" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6156" max="6158" width="9.140625" style="2"/>
     <col min="6159" max="6159" width="16" style="2" customWidth="1"/>
-    <col min="6160" max="6165" width="9.15625" style="2"/>
+    <col min="6160" max="6165" width="9.140625" style="2"/>
     <col min="6166" max="6166" width="11" style="2" customWidth="1"/>
-    <col min="6167" max="6406" width="9.15625" style="2"/>
-    <col min="6407" max="6407" width="10.68359375" style="2" customWidth="1"/>
-    <col min="6408" max="6410" width="9.15625" style="2"/>
-    <col min="6411" max="6411" width="19.68359375" style="2" customWidth="1"/>
-    <col min="6412" max="6414" width="9.15625" style="2"/>
+    <col min="6167" max="6406" width="9.140625" style="2"/>
+    <col min="6407" max="6407" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6408" max="6410" width="9.140625" style="2"/>
+    <col min="6411" max="6411" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6412" max="6414" width="9.140625" style="2"/>
     <col min="6415" max="6415" width="16" style="2" customWidth="1"/>
-    <col min="6416" max="6421" width="9.15625" style="2"/>
+    <col min="6416" max="6421" width="9.140625" style="2"/>
     <col min="6422" max="6422" width="11" style="2" customWidth="1"/>
-    <col min="6423" max="6662" width="9.15625" style="2"/>
-    <col min="6663" max="6663" width="10.68359375" style="2" customWidth="1"/>
-    <col min="6664" max="6666" width="9.15625" style="2"/>
-    <col min="6667" max="6667" width="19.68359375" style="2" customWidth="1"/>
-    <col min="6668" max="6670" width="9.15625" style="2"/>
+    <col min="6423" max="6662" width="9.140625" style="2"/>
+    <col min="6663" max="6663" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6664" max="6666" width="9.140625" style="2"/>
+    <col min="6667" max="6667" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6668" max="6670" width="9.140625" style="2"/>
     <col min="6671" max="6671" width="16" style="2" customWidth="1"/>
-    <col min="6672" max="6677" width="9.15625" style="2"/>
+    <col min="6672" max="6677" width="9.140625" style="2"/>
     <col min="6678" max="6678" width="11" style="2" customWidth="1"/>
-    <col min="6679" max="6918" width="9.15625" style="2"/>
-    <col min="6919" max="6919" width="10.68359375" style="2" customWidth="1"/>
-    <col min="6920" max="6922" width="9.15625" style="2"/>
-    <col min="6923" max="6923" width="19.68359375" style="2" customWidth="1"/>
-    <col min="6924" max="6926" width="9.15625" style="2"/>
+    <col min="6679" max="6918" width="9.140625" style="2"/>
+    <col min="6919" max="6919" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6920" max="6922" width="9.140625" style="2"/>
+    <col min="6923" max="6923" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6924" max="6926" width="9.140625" style="2"/>
     <col min="6927" max="6927" width="16" style="2" customWidth="1"/>
-    <col min="6928" max="6933" width="9.15625" style="2"/>
+    <col min="6928" max="6933" width="9.140625" style="2"/>
     <col min="6934" max="6934" width="11" style="2" customWidth="1"/>
-    <col min="6935" max="7174" width="9.15625" style="2"/>
-    <col min="7175" max="7175" width="10.68359375" style="2" customWidth="1"/>
-    <col min="7176" max="7178" width="9.15625" style="2"/>
-    <col min="7179" max="7179" width="19.68359375" style="2" customWidth="1"/>
-    <col min="7180" max="7182" width="9.15625" style="2"/>
+    <col min="6935" max="7174" width="9.140625" style="2"/>
+    <col min="7175" max="7175" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7176" max="7178" width="9.140625" style="2"/>
+    <col min="7179" max="7179" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7180" max="7182" width="9.140625" style="2"/>
     <col min="7183" max="7183" width="16" style="2" customWidth="1"/>
-    <col min="7184" max="7189" width="9.15625" style="2"/>
+    <col min="7184" max="7189" width="9.140625" style="2"/>
     <col min="7190" max="7190" width="11" style="2" customWidth="1"/>
-    <col min="7191" max="7430" width="9.15625" style="2"/>
-    <col min="7431" max="7431" width="10.68359375" style="2" customWidth="1"/>
-    <col min="7432" max="7434" width="9.15625" style="2"/>
-    <col min="7435" max="7435" width="19.68359375" style="2" customWidth="1"/>
-    <col min="7436" max="7438" width="9.15625" style="2"/>
+    <col min="7191" max="7430" width="9.140625" style="2"/>
+    <col min="7431" max="7431" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7432" max="7434" width="9.140625" style="2"/>
+    <col min="7435" max="7435" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7436" max="7438" width="9.140625" style="2"/>
     <col min="7439" max="7439" width="16" style="2" customWidth="1"/>
-    <col min="7440" max="7445" width="9.15625" style="2"/>
+    <col min="7440" max="7445" width="9.140625" style="2"/>
     <col min="7446" max="7446" width="11" style="2" customWidth="1"/>
-    <col min="7447" max="7686" width="9.15625" style="2"/>
-    <col min="7687" max="7687" width="10.68359375" style="2" customWidth="1"/>
-    <col min="7688" max="7690" width="9.15625" style="2"/>
-    <col min="7691" max="7691" width="19.68359375" style="2" customWidth="1"/>
-    <col min="7692" max="7694" width="9.15625" style="2"/>
+    <col min="7447" max="7686" width="9.140625" style="2"/>
+    <col min="7687" max="7687" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7688" max="7690" width="9.140625" style="2"/>
+    <col min="7691" max="7691" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7692" max="7694" width="9.140625" style="2"/>
     <col min="7695" max="7695" width="16" style="2" customWidth="1"/>
-    <col min="7696" max="7701" width="9.15625" style="2"/>
+    <col min="7696" max="7701" width="9.140625" style="2"/>
     <col min="7702" max="7702" width="11" style="2" customWidth="1"/>
-    <col min="7703" max="7942" width="9.15625" style="2"/>
-    <col min="7943" max="7943" width="10.68359375" style="2" customWidth="1"/>
-    <col min="7944" max="7946" width="9.15625" style="2"/>
-    <col min="7947" max="7947" width="19.68359375" style="2" customWidth="1"/>
-    <col min="7948" max="7950" width="9.15625" style="2"/>
+    <col min="7703" max="7942" width="9.140625" style="2"/>
+    <col min="7943" max="7943" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7944" max="7946" width="9.140625" style="2"/>
+    <col min="7947" max="7947" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7948" max="7950" width="9.140625" style="2"/>
     <col min="7951" max="7951" width="16" style="2" customWidth="1"/>
-    <col min="7952" max="7957" width="9.15625" style="2"/>
+    <col min="7952" max="7957" width="9.140625" style="2"/>
     <col min="7958" max="7958" width="11" style="2" customWidth="1"/>
-    <col min="7959" max="8198" width="9.15625" style="2"/>
-    <col min="8199" max="8199" width="10.68359375" style="2" customWidth="1"/>
-    <col min="8200" max="8202" width="9.15625" style="2"/>
-    <col min="8203" max="8203" width="19.68359375" style="2" customWidth="1"/>
-    <col min="8204" max="8206" width="9.15625" style="2"/>
+    <col min="7959" max="8198" width="9.140625" style="2"/>
+    <col min="8199" max="8199" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8200" max="8202" width="9.140625" style="2"/>
+    <col min="8203" max="8203" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8204" max="8206" width="9.140625" style="2"/>
     <col min="8207" max="8207" width="16" style="2" customWidth="1"/>
-    <col min="8208" max="8213" width="9.15625" style="2"/>
+    <col min="8208" max="8213" width="9.140625" style="2"/>
     <col min="8214" max="8214" width="11" style="2" customWidth="1"/>
-    <col min="8215" max="8454" width="9.15625" style="2"/>
-    <col min="8455" max="8455" width="10.68359375" style="2" customWidth="1"/>
-    <col min="8456" max="8458" width="9.15625" style="2"/>
-    <col min="8459" max="8459" width="19.68359375" style="2" customWidth="1"/>
-    <col min="8460" max="8462" width="9.15625" style="2"/>
+    <col min="8215" max="8454" width="9.140625" style="2"/>
+    <col min="8455" max="8455" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8456" max="8458" width="9.140625" style="2"/>
+    <col min="8459" max="8459" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8460" max="8462" width="9.140625" style="2"/>
     <col min="8463" max="8463" width="16" style="2" customWidth="1"/>
-    <col min="8464" max="8469" width="9.15625" style="2"/>
+    <col min="8464" max="8469" width="9.140625" style="2"/>
     <col min="8470" max="8470" width="11" style="2" customWidth="1"/>
-    <col min="8471" max="8710" width="9.15625" style="2"/>
-    <col min="8711" max="8711" width="10.68359375" style="2" customWidth="1"/>
-    <col min="8712" max="8714" width="9.15625" style="2"/>
-    <col min="8715" max="8715" width="19.68359375" style="2" customWidth="1"/>
-    <col min="8716" max="8718" width="9.15625" style="2"/>
+    <col min="8471" max="8710" width="9.140625" style="2"/>
+    <col min="8711" max="8711" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8712" max="8714" width="9.140625" style="2"/>
+    <col min="8715" max="8715" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8716" max="8718" width="9.140625" style="2"/>
     <col min="8719" max="8719" width="16" style="2" customWidth="1"/>
-    <col min="8720" max="8725" width="9.15625" style="2"/>
+    <col min="8720" max="8725" width="9.140625" style="2"/>
     <col min="8726" max="8726" width="11" style="2" customWidth="1"/>
-    <col min="8727" max="8966" width="9.15625" style="2"/>
-    <col min="8967" max="8967" width="10.68359375" style="2" customWidth="1"/>
-    <col min="8968" max="8970" width="9.15625" style="2"/>
-    <col min="8971" max="8971" width="19.68359375" style="2" customWidth="1"/>
-    <col min="8972" max="8974" width="9.15625" style="2"/>
+    <col min="8727" max="8966" width="9.140625" style="2"/>
+    <col min="8967" max="8967" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8968" max="8970" width="9.140625" style="2"/>
+    <col min="8971" max="8971" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8972" max="8974" width="9.140625" style="2"/>
     <col min="8975" max="8975" width="16" style="2" customWidth="1"/>
-    <col min="8976" max="8981" width="9.15625" style="2"/>
+    <col min="8976" max="8981" width="9.140625" style="2"/>
     <col min="8982" max="8982" width="11" style="2" customWidth="1"/>
-    <col min="8983" max="9222" width="9.15625" style="2"/>
-    <col min="9223" max="9223" width="10.68359375" style="2" customWidth="1"/>
-    <col min="9224" max="9226" width="9.15625" style="2"/>
-    <col min="9227" max="9227" width="19.68359375" style="2" customWidth="1"/>
-    <col min="9228" max="9230" width="9.15625" style="2"/>
+    <col min="8983" max="9222" width="9.140625" style="2"/>
+    <col min="9223" max="9223" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9224" max="9226" width="9.140625" style="2"/>
+    <col min="9227" max="9227" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9228" max="9230" width="9.140625" style="2"/>
     <col min="9231" max="9231" width="16" style="2" customWidth="1"/>
-    <col min="9232" max="9237" width="9.15625" style="2"/>
+    <col min="9232" max="9237" width="9.140625" style="2"/>
     <col min="9238" max="9238" width="11" style="2" customWidth="1"/>
-    <col min="9239" max="9478" width="9.15625" style="2"/>
-    <col min="9479" max="9479" width="10.68359375" style="2" customWidth="1"/>
-    <col min="9480" max="9482" width="9.15625" style="2"/>
-    <col min="9483" max="9483" width="19.68359375" style="2" customWidth="1"/>
-    <col min="9484" max="9486" width="9.15625" style="2"/>
+    <col min="9239" max="9478" width="9.140625" style="2"/>
+    <col min="9479" max="9479" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9480" max="9482" width="9.140625" style="2"/>
+    <col min="9483" max="9483" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9484" max="9486" width="9.140625" style="2"/>
     <col min="9487" max="9487" width="16" style="2" customWidth="1"/>
-    <col min="9488" max="9493" width="9.15625" style="2"/>
+    <col min="9488" max="9493" width="9.140625" style="2"/>
     <col min="9494" max="9494" width="11" style="2" customWidth="1"/>
-    <col min="9495" max="9734" width="9.15625" style="2"/>
-    <col min="9735" max="9735" width="10.68359375" style="2" customWidth="1"/>
-    <col min="9736" max="9738" width="9.15625" style="2"/>
-    <col min="9739" max="9739" width="19.68359375" style="2" customWidth="1"/>
-    <col min="9740" max="9742" width="9.15625" style="2"/>
+    <col min="9495" max="9734" width="9.140625" style="2"/>
+    <col min="9735" max="9735" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9736" max="9738" width="9.140625" style="2"/>
+    <col min="9739" max="9739" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9740" max="9742" width="9.140625" style="2"/>
     <col min="9743" max="9743" width="16" style="2" customWidth="1"/>
-    <col min="9744" max="9749" width="9.15625" style="2"/>
+    <col min="9744" max="9749" width="9.140625" style="2"/>
     <col min="9750" max="9750" width="11" style="2" customWidth="1"/>
-    <col min="9751" max="9990" width="9.15625" style="2"/>
-    <col min="9991" max="9991" width="10.68359375" style="2" customWidth="1"/>
-    <col min="9992" max="9994" width="9.15625" style="2"/>
-    <col min="9995" max="9995" width="19.68359375" style="2" customWidth="1"/>
-    <col min="9996" max="9998" width="9.15625" style="2"/>
+    <col min="9751" max="9990" width="9.140625" style="2"/>
+    <col min="9991" max="9991" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9992" max="9994" width="9.140625" style="2"/>
+    <col min="9995" max="9995" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9996" max="9998" width="9.140625" style="2"/>
     <col min="9999" max="9999" width="16" style="2" customWidth="1"/>
-    <col min="10000" max="10005" width="9.15625" style="2"/>
+    <col min="10000" max="10005" width="9.140625" style="2"/>
     <col min="10006" max="10006" width="11" style="2" customWidth="1"/>
-    <col min="10007" max="10246" width="9.15625" style="2"/>
-    <col min="10247" max="10247" width="10.68359375" style="2" customWidth="1"/>
-    <col min="10248" max="10250" width="9.15625" style="2"/>
-    <col min="10251" max="10251" width="19.68359375" style="2" customWidth="1"/>
-    <col min="10252" max="10254" width="9.15625" style="2"/>
+    <col min="10007" max="10246" width="9.140625" style="2"/>
+    <col min="10247" max="10247" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10248" max="10250" width="9.140625" style="2"/>
+    <col min="10251" max="10251" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10252" max="10254" width="9.140625" style="2"/>
     <col min="10255" max="10255" width="16" style="2" customWidth="1"/>
-    <col min="10256" max="10261" width="9.15625" style="2"/>
+    <col min="10256" max="10261" width="9.140625" style="2"/>
     <col min="10262" max="10262" width="11" style="2" customWidth="1"/>
-    <col min="10263" max="10502" width="9.15625" style="2"/>
-    <col min="10503" max="10503" width="10.68359375" style="2" customWidth="1"/>
-    <col min="10504" max="10506" width="9.15625" style="2"/>
-    <col min="10507" max="10507" width="19.68359375" style="2" customWidth="1"/>
-    <col min="10508" max="10510" width="9.15625" style="2"/>
+    <col min="10263" max="10502" width="9.140625" style="2"/>
+    <col min="10503" max="10503" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10504" max="10506" width="9.140625" style="2"/>
+    <col min="10507" max="10507" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10508" max="10510" width="9.140625" style="2"/>
     <col min="10511" max="10511" width="16" style="2" customWidth="1"/>
-    <col min="10512" max="10517" width="9.15625" style="2"/>
+    <col min="10512" max="10517" width="9.140625" style="2"/>
     <col min="10518" max="10518" width="11" style="2" customWidth="1"/>
-    <col min="10519" max="10758" width="9.15625" style="2"/>
-    <col min="10759" max="10759" width="10.68359375" style="2" customWidth="1"/>
-    <col min="10760" max="10762" width="9.15625" style="2"/>
-    <col min="10763" max="10763" width="19.68359375" style="2" customWidth="1"/>
-    <col min="10764" max="10766" width="9.15625" style="2"/>
+    <col min="10519" max="10758" width="9.140625" style="2"/>
+    <col min="10759" max="10759" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10760" max="10762" width="9.140625" style="2"/>
+    <col min="10763" max="10763" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10764" max="10766" width="9.140625" style="2"/>
     <col min="10767" max="10767" width="16" style="2" customWidth="1"/>
-    <col min="10768" max="10773" width="9.15625" style="2"/>
+    <col min="10768" max="10773" width="9.140625" style="2"/>
     <col min="10774" max="10774" width="11" style="2" customWidth="1"/>
-    <col min="10775" max="11014" width="9.15625" style="2"/>
-    <col min="11015" max="11015" width="10.68359375" style="2" customWidth="1"/>
-    <col min="11016" max="11018" width="9.15625" style="2"/>
-    <col min="11019" max="11019" width="19.68359375" style="2" customWidth="1"/>
-    <col min="11020" max="11022" width="9.15625" style="2"/>
+    <col min="10775" max="11014" width="9.140625" style="2"/>
+    <col min="11015" max="11015" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11016" max="11018" width="9.140625" style="2"/>
+    <col min="11019" max="11019" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11020" max="11022" width="9.140625" style="2"/>
     <col min="11023" max="11023" width="16" style="2" customWidth="1"/>
-    <col min="11024" max="11029" width="9.15625" style="2"/>
+    <col min="11024" max="11029" width="9.140625" style="2"/>
     <col min="11030" max="11030" width="11" style="2" customWidth="1"/>
-    <col min="11031" max="11270" width="9.15625" style="2"/>
-    <col min="11271" max="11271" width="10.68359375" style="2" customWidth="1"/>
-    <col min="11272" max="11274" width="9.15625" style="2"/>
-    <col min="11275" max="11275" width="19.68359375" style="2" customWidth="1"/>
-    <col min="11276" max="11278" width="9.15625" style="2"/>
+    <col min="11031" max="11270" width="9.140625" style="2"/>
+    <col min="11271" max="11271" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11272" max="11274" width="9.140625" style="2"/>
+    <col min="11275" max="11275" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11276" max="11278" width="9.140625" style="2"/>
     <col min="11279" max="11279" width="16" style="2" customWidth="1"/>
-    <col min="11280" max="11285" width="9.15625" style="2"/>
+    <col min="11280" max="11285" width="9.140625" style="2"/>
     <col min="11286" max="11286" width="11" style="2" customWidth="1"/>
-    <col min="11287" max="11526" width="9.15625" style="2"/>
-    <col min="11527" max="11527" width="10.68359375" style="2" customWidth="1"/>
-    <col min="11528" max="11530" width="9.15625" style="2"/>
-    <col min="11531" max="11531" width="19.68359375" style="2" customWidth="1"/>
-    <col min="11532" max="11534" width="9.15625" style="2"/>
+    <col min="11287" max="11526" width="9.140625" style="2"/>
+    <col min="11527" max="11527" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11528" max="11530" width="9.140625" style="2"/>
+    <col min="11531" max="11531" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11532" max="11534" width="9.140625" style="2"/>
     <col min="11535" max="11535" width="16" style="2" customWidth="1"/>
-    <col min="11536" max="11541" width="9.15625" style="2"/>
+    <col min="11536" max="11541" width="9.140625" style="2"/>
     <col min="11542" max="11542" width="11" style="2" customWidth="1"/>
-    <col min="11543" max="11782" width="9.15625" style="2"/>
-    <col min="11783" max="11783" width="10.68359375" style="2" customWidth="1"/>
-    <col min="11784" max="11786" width="9.15625" style="2"/>
-    <col min="11787" max="11787" width="19.68359375" style="2" customWidth="1"/>
-    <col min="11788" max="11790" width="9.15625" style="2"/>
+    <col min="11543" max="11782" width="9.140625" style="2"/>
+    <col min="11783" max="11783" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11784" max="11786" width="9.140625" style="2"/>
+    <col min="11787" max="11787" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11788" max="11790" width="9.140625" style="2"/>
     <col min="11791" max="11791" width="16" style="2" customWidth="1"/>
-    <col min="11792" max="11797" width="9.15625" style="2"/>
+    <col min="11792" max="11797" width="9.140625" style="2"/>
     <col min="11798" max="11798" width="11" style="2" customWidth="1"/>
-    <col min="11799" max="12038" width="9.15625" style="2"/>
-    <col min="12039" max="12039" width="10.68359375" style="2" customWidth="1"/>
-    <col min="12040" max="12042" width="9.15625" style="2"/>
-    <col min="12043" max="12043" width="19.68359375" style="2" customWidth="1"/>
-    <col min="12044" max="12046" width="9.15625" style="2"/>
+    <col min="11799" max="12038" width="9.140625" style="2"/>
+    <col min="12039" max="12039" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12040" max="12042" width="9.140625" style="2"/>
+    <col min="12043" max="12043" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12044" max="12046" width="9.140625" style="2"/>
     <col min="12047" max="12047" width="16" style="2" customWidth="1"/>
-    <col min="12048" max="12053" width="9.15625" style="2"/>
+    <col min="12048" max="12053" width="9.140625" style="2"/>
     <col min="12054" max="12054" width="11" style="2" customWidth="1"/>
-    <col min="12055" max="12294" width="9.15625" style="2"/>
-    <col min="12295" max="12295" width="10.68359375" style="2" customWidth="1"/>
-    <col min="12296" max="12298" width="9.15625" style="2"/>
-    <col min="12299" max="12299" width="19.68359375" style="2" customWidth="1"/>
-    <col min="12300" max="12302" width="9.15625" style="2"/>
+    <col min="12055" max="12294" width="9.140625" style="2"/>
+    <col min="12295" max="12295" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12296" max="12298" width="9.140625" style="2"/>
+    <col min="12299" max="12299" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12300" max="12302" width="9.140625" style="2"/>
     <col min="12303" max="12303" width="16" style="2" customWidth="1"/>
-    <col min="12304" max="12309" width="9.15625" style="2"/>
+    <col min="12304" max="12309" width="9.140625" style="2"/>
     <col min="12310" max="12310" width="11" style="2" customWidth="1"/>
-    <col min="12311" max="12550" width="9.15625" style="2"/>
-    <col min="12551" max="12551" width="10.68359375" style="2" customWidth="1"/>
-    <col min="12552" max="12554" width="9.15625" style="2"/>
-    <col min="12555" max="12555" width="19.68359375" style="2" customWidth="1"/>
-    <col min="12556" max="12558" width="9.15625" style="2"/>
+    <col min="12311" max="12550" width="9.140625" style="2"/>
+    <col min="12551" max="12551" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12552" max="12554" width="9.140625" style="2"/>
+    <col min="12555" max="12555" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12556" max="12558" width="9.140625" style="2"/>
     <col min="12559" max="12559" width="16" style="2" customWidth="1"/>
-    <col min="12560" max="12565" width="9.15625" style="2"/>
+    <col min="12560" max="12565" width="9.140625" style="2"/>
     <col min="12566" max="12566" width="11" style="2" customWidth="1"/>
-    <col min="12567" max="12806" width="9.15625" style="2"/>
-    <col min="12807" max="12807" width="10.68359375" style="2" customWidth="1"/>
-    <col min="12808" max="12810" width="9.15625" style="2"/>
-    <col min="12811" max="12811" width="19.68359375" style="2" customWidth="1"/>
-    <col min="12812" max="12814" width="9.15625" style="2"/>
+    <col min="12567" max="12806" width="9.140625" style="2"/>
+    <col min="12807" max="12807" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12808" max="12810" width="9.140625" style="2"/>
+    <col min="12811" max="12811" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12812" max="12814" width="9.140625" style="2"/>
     <col min="12815" max="12815" width="16" style="2" customWidth="1"/>
-    <col min="12816" max="12821" width="9.15625" style="2"/>
+    <col min="12816" max="12821" width="9.140625" style="2"/>
     <col min="12822" max="12822" width="11" style="2" customWidth="1"/>
-    <col min="12823" max="13062" width="9.15625" style="2"/>
-    <col min="13063" max="13063" width="10.68359375" style="2" customWidth="1"/>
-    <col min="13064" max="13066" width="9.15625" style="2"/>
-    <col min="13067" max="13067" width="19.68359375" style="2" customWidth="1"/>
-    <col min="13068" max="13070" width="9.15625" style="2"/>
+    <col min="12823" max="13062" width="9.140625" style="2"/>
+    <col min="13063" max="13063" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13064" max="13066" width="9.140625" style="2"/>
+    <col min="13067" max="13067" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13068" max="13070" width="9.140625" style="2"/>
     <col min="13071" max="13071" width="16" style="2" customWidth="1"/>
-    <col min="13072" max="13077" width="9.15625" style="2"/>
+    <col min="13072" max="13077" width="9.140625" style="2"/>
     <col min="13078" max="13078" width="11" style="2" customWidth="1"/>
-    <col min="13079" max="13318" width="9.15625" style="2"/>
-    <col min="13319" max="13319" width="10.68359375" style="2" customWidth="1"/>
-    <col min="13320" max="13322" width="9.15625" style="2"/>
-    <col min="13323" max="13323" width="19.68359375" style="2" customWidth="1"/>
-    <col min="13324" max="13326" width="9.15625" style="2"/>
+    <col min="13079" max="13318" width="9.140625" style="2"/>
+    <col min="13319" max="13319" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13320" max="13322" width="9.140625" style="2"/>
+    <col min="13323" max="13323" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13324" max="13326" width="9.140625" style="2"/>
     <col min="13327" max="13327" width="16" style="2" customWidth="1"/>
-    <col min="13328" max="13333" width="9.15625" style="2"/>
+    <col min="13328" max="13333" width="9.140625" style="2"/>
     <col min="13334" max="13334" width="11" style="2" customWidth="1"/>
-    <col min="13335" max="13574" width="9.15625" style="2"/>
-    <col min="13575" max="13575" width="10.68359375" style="2" customWidth="1"/>
-    <col min="13576" max="13578" width="9.15625" style="2"/>
-    <col min="13579" max="13579" width="19.68359375" style="2" customWidth="1"/>
-    <col min="13580" max="13582" width="9.15625" style="2"/>
+    <col min="13335" max="13574" width="9.140625" style="2"/>
+    <col min="13575" max="13575" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13576" max="13578" width="9.140625" style="2"/>
+    <col min="13579" max="13579" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13580" max="13582" width="9.140625" style="2"/>
     <col min="13583" max="13583" width="16" style="2" customWidth="1"/>
-    <col min="13584" max="13589" width="9.15625" style="2"/>
+    <col min="13584" max="13589" width="9.140625" style="2"/>
     <col min="13590" max="13590" width="11" style="2" customWidth="1"/>
-    <col min="13591" max="13830" width="9.15625" style="2"/>
-    <col min="13831" max="13831" width="10.68359375" style="2" customWidth="1"/>
-    <col min="13832" max="13834" width="9.15625" style="2"/>
-    <col min="13835" max="13835" width="19.68359375" style="2" customWidth="1"/>
-    <col min="13836" max="13838" width="9.15625" style="2"/>
+    <col min="13591" max="13830" width="9.140625" style="2"/>
+    <col min="13831" max="13831" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13832" max="13834" width="9.140625" style="2"/>
+    <col min="13835" max="13835" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13836" max="13838" width="9.140625" style="2"/>
     <col min="13839" max="13839" width="16" style="2" customWidth="1"/>
-    <col min="13840" max="13845" width="9.15625" style="2"/>
+    <col min="13840" max="13845" width="9.140625" style="2"/>
     <col min="13846" max="13846" width="11" style="2" customWidth="1"/>
-    <col min="13847" max="14086" width="9.15625" style="2"/>
-    <col min="14087" max="14087" width="10.68359375" style="2" customWidth="1"/>
-    <col min="14088" max="14090" width="9.15625" style="2"/>
-    <col min="14091" max="14091" width="19.68359375" style="2" customWidth="1"/>
-    <col min="14092" max="14094" width="9.15625" style="2"/>
+    <col min="13847" max="14086" width="9.140625" style="2"/>
+    <col min="14087" max="14087" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14088" max="14090" width="9.140625" style="2"/>
+    <col min="14091" max="14091" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14092" max="14094" width="9.140625" style="2"/>
     <col min="14095" max="14095" width="16" style="2" customWidth="1"/>
-    <col min="14096" max="14101" width="9.15625" style="2"/>
+    <col min="14096" max="14101" width="9.140625" style="2"/>
     <col min="14102" max="14102" width="11" style="2" customWidth="1"/>
-    <col min="14103" max="14342" width="9.15625" style="2"/>
-    <col min="14343" max="14343" width="10.68359375" style="2" customWidth="1"/>
-    <col min="14344" max="14346" width="9.15625" style="2"/>
-    <col min="14347" max="14347" width="19.68359375" style="2" customWidth="1"/>
-    <col min="14348" max="14350" width="9.15625" style="2"/>
+    <col min="14103" max="14342" width="9.140625" style="2"/>
+    <col min="14343" max="14343" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14344" max="14346" width="9.140625" style="2"/>
+    <col min="14347" max="14347" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14348" max="14350" width="9.140625" style="2"/>
     <col min="14351" max="14351" width="16" style="2" customWidth="1"/>
-    <col min="14352" max="14357" width="9.15625" style="2"/>
+    <col min="14352" max="14357" width="9.140625" style="2"/>
     <col min="14358" max="14358" width="11" style="2" customWidth="1"/>
-    <col min="14359" max="14598" width="9.15625" style="2"/>
-    <col min="14599" max="14599" width="10.68359375" style="2" customWidth="1"/>
-    <col min="14600" max="14602" width="9.15625" style="2"/>
-    <col min="14603" max="14603" width="19.68359375" style="2" customWidth="1"/>
-    <col min="14604" max="14606" width="9.15625" style="2"/>
+    <col min="14359" max="14598" width="9.140625" style="2"/>
+    <col min="14599" max="14599" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14600" max="14602" width="9.140625" style="2"/>
+    <col min="14603" max="14603" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14604" max="14606" width="9.140625" style="2"/>
     <col min="14607" max="14607" width="16" style="2" customWidth="1"/>
-    <col min="14608" max="14613" width="9.15625" style="2"/>
+    <col min="14608" max="14613" width="9.140625" style="2"/>
     <col min="14614" max="14614" width="11" style="2" customWidth="1"/>
-    <col min="14615" max="14854" width="9.15625" style="2"/>
-    <col min="14855" max="14855" width="10.68359375" style="2" customWidth="1"/>
-    <col min="14856" max="14858" width="9.15625" style="2"/>
-    <col min="14859" max="14859" width="19.68359375" style="2" customWidth="1"/>
-    <col min="14860" max="14862" width="9.15625" style="2"/>
+    <col min="14615" max="14854" width="9.140625" style="2"/>
+    <col min="14855" max="14855" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14856" max="14858" width="9.140625" style="2"/>
+    <col min="14859" max="14859" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14860" max="14862" width="9.140625" style="2"/>
     <col min="14863" max="14863" width="16" style="2" customWidth="1"/>
-    <col min="14864" max="14869" width="9.15625" style="2"/>
+    <col min="14864" max="14869" width="9.140625" style="2"/>
     <col min="14870" max="14870" width="11" style="2" customWidth="1"/>
-    <col min="14871" max="15110" width="9.15625" style="2"/>
-    <col min="15111" max="15111" width="10.68359375" style="2" customWidth="1"/>
-    <col min="15112" max="15114" width="9.15625" style="2"/>
-    <col min="15115" max="15115" width="19.68359375" style="2" customWidth="1"/>
-    <col min="15116" max="15118" width="9.15625" style="2"/>
+    <col min="14871" max="15110" width="9.140625" style="2"/>
+    <col min="15111" max="15111" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15112" max="15114" width="9.140625" style="2"/>
+    <col min="15115" max="15115" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15116" max="15118" width="9.140625" style="2"/>
     <col min="15119" max="15119" width="16" style="2" customWidth="1"/>
-    <col min="15120" max="15125" width="9.15625" style="2"/>
+    <col min="15120" max="15125" width="9.140625" style="2"/>
     <col min="15126" max="15126" width="11" style="2" customWidth="1"/>
-    <col min="15127" max="15366" width="9.15625" style="2"/>
-    <col min="15367" max="15367" width="10.68359375" style="2" customWidth="1"/>
-    <col min="15368" max="15370" width="9.15625" style="2"/>
-    <col min="15371" max="15371" width="19.68359375" style="2" customWidth="1"/>
-    <col min="15372" max="15374" width="9.15625" style="2"/>
+    <col min="15127" max="15366" width="9.140625" style="2"/>
+    <col min="15367" max="15367" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15368" max="15370" width="9.140625" style="2"/>
+    <col min="15371" max="15371" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15372" max="15374" width="9.140625" style="2"/>
     <col min="15375" max="15375" width="16" style="2" customWidth="1"/>
-    <col min="15376" max="15381" width="9.15625" style="2"/>
+    <col min="15376" max="15381" width="9.140625" style="2"/>
     <col min="15382" max="15382" width="11" style="2" customWidth="1"/>
-    <col min="15383" max="15622" width="9.15625" style="2"/>
-    <col min="15623" max="15623" width="10.68359375" style="2" customWidth="1"/>
-    <col min="15624" max="15626" width="9.15625" style="2"/>
-    <col min="15627" max="15627" width="19.68359375" style="2" customWidth="1"/>
-    <col min="15628" max="15630" width="9.15625" style="2"/>
+    <col min="15383" max="15622" width="9.140625" style="2"/>
+    <col min="15623" max="15623" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15624" max="15626" width="9.140625" style="2"/>
+    <col min="15627" max="15627" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15628" max="15630" width="9.140625" style="2"/>
     <col min="15631" max="15631" width="16" style="2" customWidth="1"/>
-    <col min="15632" max="15637" width="9.15625" style="2"/>
+    <col min="15632" max="15637" width="9.140625" style="2"/>
     <col min="15638" max="15638" width="11" style="2" customWidth="1"/>
-    <col min="15639" max="15878" width="9.15625" style="2"/>
-    <col min="15879" max="15879" width="10.68359375" style="2" customWidth="1"/>
-    <col min="15880" max="15882" width="9.15625" style="2"/>
-    <col min="15883" max="15883" width="19.68359375" style="2" customWidth="1"/>
-    <col min="15884" max="15886" width="9.15625" style="2"/>
+    <col min="15639" max="15878" width="9.140625" style="2"/>
+    <col min="15879" max="15879" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15880" max="15882" width="9.140625" style="2"/>
+    <col min="15883" max="15883" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15884" max="15886" width="9.140625" style="2"/>
     <col min="15887" max="15887" width="16" style="2" customWidth="1"/>
-    <col min="15888" max="15893" width="9.15625" style="2"/>
+    <col min="15888" max="15893" width="9.140625" style="2"/>
     <col min="15894" max="15894" width="11" style="2" customWidth="1"/>
-    <col min="15895" max="16134" width="9.15625" style="2"/>
-    <col min="16135" max="16135" width="10.68359375" style="2" customWidth="1"/>
-    <col min="16136" max="16138" width="9.15625" style="2"/>
-    <col min="16139" max="16139" width="19.68359375" style="2" customWidth="1"/>
-    <col min="16140" max="16142" width="9.15625" style="2"/>
+    <col min="15895" max="16134" width="9.140625" style="2"/>
+    <col min="16135" max="16135" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16136" max="16138" width="9.140625" style="2"/>
+    <col min="16139" max="16139" width="19.7109375" style="2" customWidth="1"/>
+    <col min="16140" max="16142" width="9.140625" style="2"/>
     <col min="16143" max="16143" width="16" style="2" customWidth="1"/>
-    <col min="16144" max="16149" width="9.15625" style="2"/>
+    <col min="16144" max="16149" width="9.140625" style="2"/>
     <col min="16150" max="16150" width="11" style="2" customWidth="1"/>
-    <col min="16151" max="16384" width="9.15625" style="2"/>
+    <col min="16151" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2392,45 +2546,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-    </row>
-    <row r="3" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="80" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+    </row>
+    <row r="3" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2448,17 +2602,17 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2476,79 +2630,79 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:51" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:51" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:51" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="81" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:51" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="86" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="85"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89" t="s">
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="90" t="s">
+      <c r="P8" s="85"/>
+      <c r="Q8" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="91"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="83" t="s">
+      <c r="R8" s="90"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="84"/>
-      <c r="V8" s="86" t="s">
+      <c r="U8" s="85"/>
+      <c r="V8" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="86" t="s">
+      <c r="W8" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="X8" s="96" t="s">
+      <c r="X8" s="74" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="82"/>
+    <row r="9" spans="1:51" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="83"/>
       <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
@@ -2576,7 +2730,7 @@
       <c r="J9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="87"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="5" t="s">
         <v>61</v>
       </c>
@@ -2607,11 +2761,11 @@
       <c r="U9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="97"/>
-    </row>
-    <row r="10" spans="1:51" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="75"/>
+    </row>
+    <row r="10" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2685,31 +2839,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="8" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
+    <row r="11" spans="1:51" s="8" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -2738,8 +2892,8 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
     </row>
-    <row r="12" spans="1:51" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="1:51" s="7" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:51" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:51" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2753,35 +2907,35 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:51" s="7" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:51" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="99"/>
-    </row>
-    <row r="15" spans="1:51" s="7" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+    </row>
+    <row r="15" spans="1:51" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2805,28 +2959,28 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="79"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
+    <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -2839,7 +2993,7 @@
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
     </row>
-    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2850,17 +3004,17 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -2873,80 +3027,72 @@
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
     </row>
-    <row r="18" spans="1:35" s="7" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:35" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+    </row>
+    <row r="19" spans="1:35" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="77" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="78" t="s">
+      <c r="J19" s="36"/>
+      <c r="K19" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="78"/>
-    </row>
-    <row r="20" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="21" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="22" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="26" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="37" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="39" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="40" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="41" s="7" customFormat="1" ht="11.4" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="L19" s="97"/>
+    </row>
+    <row r="20" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="33" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="34" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="37" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="38" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="39" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="40" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="41" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="R16:X16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2963,11 +3109,19 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.5.xlsx
+++ b/data/Excel/1.5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F44D5B7-D0A9-4C52-B0C0-9463F8D2FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -183,9 +184,6 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>Дата окончания настящего отчетного периода</t>
-  </si>
-  <si>
     <t>Номер корректировки</t>
   </si>
   <si>
@@ -292,12 +290,15 @@
   </si>
   <si>
     <t>(Электронная почта)</t>
+  </si>
+  <si>
+    <t>Дата окончания настоящего отчетного периода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,7 +896,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -931,9 +932,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -972,7 +970,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,6 +1000,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,210 +1144,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1518,464 +1516,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F19" sqref="F19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="14" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="16.7265625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" style="13" customWidth="1"/>
+    <col min="7" max="9" width="10.54296875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="78"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="78"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="78"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="98"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="99"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="52"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="99"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="52"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="99"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="52"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="99"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="52"/>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="99"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="52"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="99"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="52"/>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="99"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="60" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="70"/>
+      <c r="B24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="101"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="52"/>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="100"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="66"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="52"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="100"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="66"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="52"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="100"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="66"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="52"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="100"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="66"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="52"/>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="99"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="52"/>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="99"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="67" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="53"/>
+      <c r="B32" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="101"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="26" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:9" s="25" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" s="26" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" s="25" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1992,551 +1994,547 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="24" width="10.5703125" style="2" customWidth="1"/>
-    <col min="25" max="262" width="9.140625" style="2"/>
-    <col min="263" max="263" width="10.7109375" style="2" customWidth="1"/>
-    <col min="264" max="266" width="9.140625" style="2"/>
-    <col min="267" max="267" width="19.7109375" style="2" customWidth="1"/>
-    <col min="268" max="270" width="9.140625" style="2"/>
+    <col min="1" max="24" width="10.54296875" style="2" customWidth="1"/>
+    <col min="25" max="262" width="9.1796875" style="2"/>
+    <col min="263" max="263" width="10.7265625" style="2" customWidth="1"/>
+    <col min="264" max="266" width="9.1796875" style="2"/>
+    <col min="267" max="267" width="19.7265625" style="2" customWidth="1"/>
+    <col min="268" max="270" width="9.1796875" style="2"/>
     <col min="271" max="271" width="16" style="2" customWidth="1"/>
-    <col min="272" max="277" width="9.140625" style="2"/>
+    <col min="272" max="277" width="9.1796875" style="2"/>
     <col min="278" max="278" width="11" style="2" customWidth="1"/>
-    <col min="279" max="518" width="9.140625" style="2"/>
-    <col min="519" max="519" width="10.7109375" style="2" customWidth="1"/>
-    <col min="520" max="522" width="9.140625" style="2"/>
-    <col min="523" max="523" width="19.7109375" style="2" customWidth="1"/>
-    <col min="524" max="526" width="9.140625" style="2"/>
+    <col min="279" max="518" width="9.1796875" style="2"/>
+    <col min="519" max="519" width="10.7265625" style="2" customWidth="1"/>
+    <col min="520" max="522" width="9.1796875" style="2"/>
+    <col min="523" max="523" width="19.7265625" style="2" customWidth="1"/>
+    <col min="524" max="526" width="9.1796875" style="2"/>
     <col min="527" max="527" width="16" style="2" customWidth="1"/>
-    <col min="528" max="533" width="9.140625" style="2"/>
+    <col min="528" max="533" width="9.1796875" style="2"/>
     <col min="534" max="534" width="11" style="2" customWidth="1"/>
-    <col min="535" max="774" width="9.140625" style="2"/>
-    <col min="775" max="775" width="10.7109375" style="2" customWidth="1"/>
-    <col min="776" max="778" width="9.140625" style="2"/>
-    <col min="779" max="779" width="19.7109375" style="2" customWidth="1"/>
-    <col min="780" max="782" width="9.140625" style="2"/>
+    <col min="535" max="774" width="9.1796875" style="2"/>
+    <col min="775" max="775" width="10.7265625" style="2" customWidth="1"/>
+    <col min="776" max="778" width="9.1796875" style="2"/>
+    <col min="779" max="779" width="19.7265625" style="2" customWidth="1"/>
+    <col min="780" max="782" width="9.1796875" style="2"/>
     <col min="783" max="783" width="16" style="2" customWidth="1"/>
-    <col min="784" max="789" width="9.140625" style="2"/>
+    <col min="784" max="789" width="9.1796875" style="2"/>
     <col min="790" max="790" width="11" style="2" customWidth="1"/>
-    <col min="791" max="1030" width="9.140625" style="2"/>
-    <col min="1031" max="1031" width="10.7109375" style="2" customWidth="1"/>
-    <col min="1032" max="1034" width="9.140625" style="2"/>
-    <col min="1035" max="1035" width="19.7109375" style="2" customWidth="1"/>
-    <col min="1036" max="1038" width="9.140625" style="2"/>
+    <col min="791" max="1030" width="9.1796875" style="2"/>
+    <col min="1031" max="1031" width="10.7265625" style="2" customWidth="1"/>
+    <col min="1032" max="1034" width="9.1796875" style="2"/>
+    <col min="1035" max="1035" width="19.7265625" style="2" customWidth="1"/>
+    <col min="1036" max="1038" width="9.1796875" style="2"/>
     <col min="1039" max="1039" width="16" style="2" customWidth="1"/>
-    <col min="1040" max="1045" width="9.140625" style="2"/>
+    <col min="1040" max="1045" width="9.1796875" style="2"/>
     <col min="1046" max="1046" width="11" style="2" customWidth="1"/>
-    <col min="1047" max="1286" width="9.140625" style="2"/>
-    <col min="1287" max="1287" width="10.7109375" style="2" customWidth="1"/>
-    <col min="1288" max="1290" width="9.140625" style="2"/>
-    <col min="1291" max="1291" width="19.7109375" style="2" customWidth="1"/>
-    <col min="1292" max="1294" width="9.140625" style="2"/>
+    <col min="1047" max="1286" width="9.1796875" style="2"/>
+    <col min="1287" max="1287" width="10.7265625" style="2" customWidth="1"/>
+    <col min="1288" max="1290" width="9.1796875" style="2"/>
+    <col min="1291" max="1291" width="19.7265625" style="2" customWidth="1"/>
+    <col min="1292" max="1294" width="9.1796875" style="2"/>
     <col min="1295" max="1295" width="16" style="2" customWidth="1"/>
-    <col min="1296" max="1301" width="9.140625" style="2"/>
+    <col min="1296" max="1301" width="9.1796875" style="2"/>
     <col min="1302" max="1302" width="11" style="2" customWidth="1"/>
-    <col min="1303" max="1542" width="9.140625" style="2"/>
-    <col min="1543" max="1543" width="10.7109375" style="2" customWidth="1"/>
-    <col min="1544" max="1546" width="9.140625" style="2"/>
-    <col min="1547" max="1547" width="19.7109375" style="2" customWidth="1"/>
-    <col min="1548" max="1550" width="9.140625" style="2"/>
+    <col min="1303" max="1542" width="9.1796875" style="2"/>
+    <col min="1543" max="1543" width="10.7265625" style="2" customWidth="1"/>
+    <col min="1544" max="1546" width="9.1796875" style="2"/>
+    <col min="1547" max="1547" width="19.7265625" style="2" customWidth="1"/>
+    <col min="1548" max="1550" width="9.1796875" style="2"/>
     <col min="1551" max="1551" width="16" style="2" customWidth="1"/>
-    <col min="1552" max="1557" width="9.140625" style="2"/>
+    <col min="1552" max="1557" width="9.1796875" style="2"/>
     <col min="1558" max="1558" width="11" style="2" customWidth="1"/>
-    <col min="1559" max="1798" width="9.140625" style="2"/>
-    <col min="1799" max="1799" width="10.7109375" style="2" customWidth="1"/>
-    <col min="1800" max="1802" width="9.140625" style="2"/>
-    <col min="1803" max="1803" width="19.7109375" style="2" customWidth="1"/>
-    <col min="1804" max="1806" width="9.140625" style="2"/>
+    <col min="1559" max="1798" width="9.1796875" style="2"/>
+    <col min="1799" max="1799" width="10.7265625" style="2" customWidth="1"/>
+    <col min="1800" max="1802" width="9.1796875" style="2"/>
+    <col min="1803" max="1803" width="19.7265625" style="2" customWidth="1"/>
+    <col min="1804" max="1806" width="9.1796875" style="2"/>
     <col min="1807" max="1807" width="16" style="2" customWidth="1"/>
-    <col min="1808" max="1813" width="9.140625" style="2"/>
+    <col min="1808" max="1813" width="9.1796875" style="2"/>
     <col min="1814" max="1814" width="11" style="2" customWidth="1"/>
-    <col min="1815" max="2054" width="9.140625" style="2"/>
-    <col min="2055" max="2055" width="10.7109375" style="2" customWidth="1"/>
-    <col min="2056" max="2058" width="9.140625" style="2"/>
-    <col min="2059" max="2059" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2060" max="2062" width="9.140625" style="2"/>
+    <col min="1815" max="2054" width="9.1796875" style="2"/>
+    <col min="2055" max="2055" width="10.7265625" style="2" customWidth="1"/>
+    <col min="2056" max="2058" width="9.1796875" style="2"/>
+    <col min="2059" max="2059" width="19.7265625" style="2" customWidth="1"/>
+    <col min="2060" max="2062" width="9.1796875" style="2"/>
     <col min="2063" max="2063" width="16" style="2" customWidth="1"/>
-    <col min="2064" max="2069" width="9.140625" style="2"/>
+    <col min="2064" max="2069" width="9.1796875" style="2"/>
     <col min="2070" max="2070" width="11" style="2" customWidth="1"/>
-    <col min="2071" max="2310" width="9.140625" style="2"/>
-    <col min="2311" max="2311" width="10.7109375" style="2" customWidth="1"/>
-    <col min="2312" max="2314" width="9.140625" style="2"/>
-    <col min="2315" max="2315" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2316" max="2318" width="9.140625" style="2"/>
+    <col min="2071" max="2310" width="9.1796875" style="2"/>
+    <col min="2311" max="2311" width="10.7265625" style="2" customWidth="1"/>
+    <col min="2312" max="2314" width="9.1796875" style="2"/>
+    <col min="2315" max="2315" width="19.7265625" style="2" customWidth="1"/>
+    <col min="2316" max="2318" width="9.1796875" style="2"/>
     <col min="2319" max="2319" width="16" style="2" customWidth="1"/>
-    <col min="2320" max="2325" width="9.140625" style="2"/>
+    <col min="2320" max="2325" width="9.1796875" style="2"/>
     <col min="2326" max="2326" width="11" style="2" customWidth="1"/>
-    <col min="2327" max="2566" width="9.140625" style="2"/>
-    <col min="2567" max="2567" width="10.7109375" style="2" customWidth="1"/>
-    <col min="2568" max="2570" width="9.140625" style="2"/>
-    <col min="2571" max="2571" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2572" max="2574" width="9.140625" style="2"/>
+    <col min="2327" max="2566" width="9.1796875" style="2"/>
+    <col min="2567" max="2567" width="10.7265625" style="2" customWidth="1"/>
+    <col min="2568" max="2570" width="9.1796875" style="2"/>
+    <col min="2571" max="2571" width="19.7265625" style="2" customWidth="1"/>
+    <col min="2572" max="2574" width="9.1796875" style="2"/>
     <col min="2575" max="2575" width="16" style="2" customWidth="1"/>
-    <col min="2576" max="2581" width="9.140625" style="2"/>
+    <col min="2576" max="2581" width="9.1796875" style="2"/>
     <col min="2582" max="2582" width="11" style="2" customWidth="1"/>
-    <col min="2583" max="2822" width="9.140625" style="2"/>
-    <col min="2823" max="2823" width="10.7109375" style="2" customWidth="1"/>
-    <col min="2824" max="2826" width="9.140625" style="2"/>
-    <col min="2827" max="2827" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2828" max="2830" width="9.140625" style="2"/>
+    <col min="2583" max="2822" width="9.1796875" style="2"/>
+    <col min="2823" max="2823" width="10.7265625" style="2" customWidth="1"/>
+    <col min="2824" max="2826" width="9.1796875" style="2"/>
+    <col min="2827" max="2827" width="19.7265625" style="2" customWidth="1"/>
+    <col min="2828" max="2830" width="9.1796875" style="2"/>
     <col min="2831" max="2831" width="16" style="2" customWidth="1"/>
-    <col min="2832" max="2837" width="9.140625" style="2"/>
+    <col min="2832" max="2837" width="9.1796875" style="2"/>
     <col min="2838" max="2838" width="11" style="2" customWidth="1"/>
-    <col min="2839" max="3078" width="9.140625" style="2"/>
-    <col min="3079" max="3079" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3080" max="3082" width="9.140625" style="2"/>
-    <col min="3083" max="3083" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3084" max="3086" width="9.140625" style="2"/>
+    <col min="2839" max="3078" width="9.1796875" style="2"/>
+    <col min="3079" max="3079" width="10.7265625" style="2" customWidth="1"/>
+    <col min="3080" max="3082" width="9.1796875" style="2"/>
+    <col min="3083" max="3083" width="19.7265625" style="2" customWidth="1"/>
+    <col min="3084" max="3086" width="9.1796875" style="2"/>
     <col min="3087" max="3087" width="16" style="2" customWidth="1"/>
-    <col min="3088" max="3093" width="9.140625" style="2"/>
+    <col min="3088" max="3093" width="9.1796875" style="2"/>
     <col min="3094" max="3094" width="11" style="2" customWidth="1"/>
-    <col min="3095" max="3334" width="9.140625" style="2"/>
-    <col min="3335" max="3335" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3336" max="3338" width="9.140625" style="2"/>
-    <col min="3339" max="3339" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3340" max="3342" width="9.140625" style="2"/>
+    <col min="3095" max="3334" width="9.1796875" style="2"/>
+    <col min="3335" max="3335" width="10.7265625" style="2" customWidth="1"/>
+    <col min="3336" max="3338" width="9.1796875" style="2"/>
+    <col min="3339" max="3339" width="19.7265625" style="2" customWidth="1"/>
+    <col min="3340" max="3342" width="9.1796875" style="2"/>
     <col min="3343" max="3343" width="16" style="2" customWidth="1"/>
-    <col min="3344" max="3349" width="9.140625" style="2"/>
+    <col min="3344" max="3349" width="9.1796875" style="2"/>
     <col min="3350" max="3350" width="11" style="2" customWidth="1"/>
-    <col min="3351" max="3590" width="9.140625" style="2"/>
-    <col min="3591" max="3591" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3592" max="3594" width="9.140625" style="2"/>
-    <col min="3595" max="3595" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3596" max="3598" width="9.140625" style="2"/>
+    <col min="3351" max="3590" width="9.1796875" style="2"/>
+    <col min="3591" max="3591" width="10.7265625" style="2" customWidth="1"/>
+    <col min="3592" max="3594" width="9.1796875" style="2"/>
+    <col min="3595" max="3595" width="19.7265625" style="2" customWidth="1"/>
+    <col min="3596" max="3598" width="9.1796875" style="2"/>
     <col min="3599" max="3599" width="16" style="2" customWidth="1"/>
-    <col min="3600" max="3605" width="9.140625" style="2"/>
+    <col min="3600" max="3605" width="9.1796875" style="2"/>
     <col min="3606" max="3606" width="11" style="2" customWidth="1"/>
-    <col min="3607" max="3846" width="9.140625" style="2"/>
-    <col min="3847" max="3847" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3848" max="3850" width="9.140625" style="2"/>
-    <col min="3851" max="3851" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3852" max="3854" width="9.140625" style="2"/>
+    <col min="3607" max="3846" width="9.1796875" style="2"/>
+    <col min="3847" max="3847" width="10.7265625" style="2" customWidth="1"/>
+    <col min="3848" max="3850" width="9.1796875" style="2"/>
+    <col min="3851" max="3851" width="19.7265625" style="2" customWidth="1"/>
+    <col min="3852" max="3854" width="9.1796875" style="2"/>
     <col min="3855" max="3855" width="16" style="2" customWidth="1"/>
-    <col min="3856" max="3861" width="9.140625" style="2"/>
+    <col min="3856" max="3861" width="9.1796875" style="2"/>
     <col min="3862" max="3862" width="11" style="2" customWidth="1"/>
-    <col min="3863" max="4102" width="9.140625" style="2"/>
-    <col min="4103" max="4103" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4104" max="4106" width="9.140625" style="2"/>
-    <col min="4107" max="4107" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4108" max="4110" width="9.140625" style="2"/>
+    <col min="3863" max="4102" width="9.1796875" style="2"/>
+    <col min="4103" max="4103" width="10.7265625" style="2" customWidth="1"/>
+    <col min="4104" max="4106" width="9.1796875" style="2"/>
+    <col min="4107" max="4107" width="19.7265625" style="2" customWidth="1"/>
+    <col min="4108" max="4110" width="9.1796875" style="2"/>
     <col min="4111" max="4111" width="16" style="2" customWidth="1"/>
-    <col min="4112" max="4117" width="9.140625" style="2"/>
+    <col min="4112" max="4117" width="9.1796875" style="2"/>
     <col min="4118" max="4118" width="11" style="2" customWidth="1"/>
-    <col min="4119" max="4358" width="9.140625" style="2"/>
-    <col min="4359" max="4359" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4360" max="4362" width="9.140625" style="2"/>
-    <col min="4363" max="4363" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4364" max="4366" width="9.140625" style="2"/>
+    <col min="4119" max="4358" width="9.1796875" style="2"/>
+    <col min="4359" max="4359" width="10.7265625" style="2" customWidth="1"/>
+    <col min="4360" max="4362" width="9.1796875" style="2"/>
+    <col min="4363" max="4363" width="19.7265625" style="2" customWidth="1"/>
+    <col min="4364" max="4366" width="9.1796875" style="2"/>
     <col min="4367" max="4367" width="16" style="2" customWidth="1"/>
-    <col min="4368" max="4373" width="9.140625" style="2"/>
+    <col min="4368" max="4373" width="9.1796875" style="2"/>
     <col min="4374" max="4374" width="11" style="2" customWidth="1"/>
-    <col min="4375" max="4614" width="9.140625" style="2"/>
-    <col min="4615" max="4615" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4616" max="4618" width="9.140625" style="2"/>
-    <col min="4619" max="4619" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4620" max="4622" width="9.140625" style="2"/>
+    <col min="4375" max="4614" width="9.1796875" style="2"/>
+    <col min="4615" max="4615" width="10.7265625" style="2" customWidth="1"/>
+    <col min="4616" max="4618" width="9.1796875" style="2"/>
+    <col min="4619" max="4619" width="19.7265625" style="2" customWidth="1"/>
+    <col min="4620" max="4622" width="9.1796875" style="2"/>
     <col min="4623" max="4623" width="16" style="2" customWidth="1"/>
-    <col min="4624" max="4629" width="9.140625" style="2"/>
+    <col min="4624" max="4629" width="9.1796875" style="2"/>
     <col min="4630" max="4630" width="11" style="2" customWidth="1"/>
-    <col min="4631" max="4870" width="9.140625" style="2"/>
-    <col min="4871" max="4871" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4872" max="4874" width="9.140625" style="2"/>
-    <col min="4875" max="4875" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4876" max="4878" width="9.140625" style="2"/>
+    <col min="4631" max="4870" width="9.1796875" style="2"/>
+    <col min="4871" max="4871" width="10.7265625" style="2" customWidth="1"/>
+    <col min="4872" max="4874" width="9.1796875" style="2"/>
+    <col min="4875" max="4875" width="19.7265625" style="2" customWidth="1"/>
+    <col min="4876" max="4878" width="9.1796875" style="2"/>
     <col min="4879" max="4879" width="16" style="2" customWidth="1"/>
-    <col min="4880" max="4885" width="9.140625" style="2"/>
+    <col min="4880" max="4885" width="9.1796875" style="2"/>
     <col min="4886" max="4886" width="11" style="2" customWidth="1"/>
-    <col min="4887" max="5126" width="9.140625" style="2"/>
-    <col min="5127" max="5127" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5128" max="5130" width="9.140625" style="2"/>
-    <col min="5131" max="5131" width="19.7109375" style="2" customWidth="1"/>
-    <col min="5132" max="5134" width="9.140625" style="2"/>
+    <col min="4887" max="5126" width="9.1796875" style="2"/>
+    <col min="5127" max="5127" width="10.7265625" style="2" customWidth="1"/>
+    <col min="5128" max="5130" width="9.1796875" style="2"/>
+    <col min="5131" max="5131" width="19.7265625" style="2" customWidth="1"/>
+    <col min="5132" max="5134" width="9.1796875" style="2"/>
     <col min="5135" max="5135" width="16" style="2" customWidth="1"/>
-    <col min="5136" max="5141" width="9.140625" style="2"/>
+    <col min="5136" max="5141" width="9.1796875" style="2"/>
     <col min="5142" max="5142" width="11" style="2" customWidth="1"/>
-    <col min="5143" max="5382" width="9.140625" style="2"/>
-    <col min="5383" max="5383" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5384" max="5386" width="9.140625" style="2"/>
-    <col min="5387" max="5387" width="19.7109375" style="2" customWidth="1"/>
-    <col min="5388" max="5390" width="9.140625" style="2"/>
+    <col min="5143" max="5382" width="9.1796875" style="2"/>
+    <col min="5383" max="5383" width="10.7265625" style="2" customWidth="1"/>
+    <col min="5384" max="5386" width="9.1796875" style="2"/>
+    <col min="5387" max="5387" width="19.7265625" style="2" customWidth="1"/>
+    <col min="5388" max="5390" width="9.1796875" style="2"/>
     <col min="5391" max="5391" width="16" style="2" customWidth="1"/>
-    <col min="5392" max="5397" width="9.140625" style="2"/>
+    <col min="5392" max="5397" width="9.1796875" style="2"/>
     <col min="5398" max="5398" width="11" style="2" customWidth="1"/>
-    <col min="5399" max="5638" width="9.140625" style="2"/>
-    <col min="5639" max="5639" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5640" max="5642" width="9.140625" style="2"/>
-    <col min="5643" max="5643" width="19.7109375" style="2" customWidth="1"/>
-    <col min="5644" max="5646" width="9.140625" style="2"/>
+    <col min="5399" max="5638" width="9.1796875" style="2"/>
+    <col min="5639" max="5639" width="10.7265625" style="2" customWidth="1"/>
+    <col min="5640" max="5642" width="9.1796875" style="2"/>
+    <col min="5643" max="5643" width="19.7265625" style="2" customWidth="1"/>
+    <col min="5644" max="5646" width="9.1796875" style="2"/>
     <col min="5647" max="5647" width="16" style="2" customWidth="1"/>
-    <col min="5648" max="5653" width="9.140625" style="2"/>
+    <col min="5648" max="5653" width="9.1796875" style="2"/>
     <col min="5654" max="5654" width="11" style="2" customWidth="1"/>
-    <col min="5655" max="5894" width="9.140625" style="2"/>
-    <col min="5895" max="5895" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5896" max="5898" width="9.140625" style="2"/>
-    <col min="5899" max="5899" width="19.7109375" style="2" customWidth="1"/>
-    <col min="5900" max="5902" width="9.140625" style="2"/>
+    <col min="5655" max="5894" width="9.1796875" style="2"/>
+    <col min="5895" max="5895" width="10.7265625" style="2" customWidth="1"/>
+    <col min="5896" max="5898" width="9.1796875" style="2"/>
+    <col min="5899" max="5899" width="19.7265625" style="2" customWidth="1"/>
+    <col min="5900" max="5902" width="9.1796875" style="2"/>
     <col min="5903" max="5903" width="16" style="2" customWidth="1"/>
-    <col min="5904" max="5909" width="9.140625" style="2"/>
+    <col min="5904" max="5909" width="9.1796875" style="2"/>
     <col min="5910" max="5910" width="11" style="2" customWidth="1"/>
-    <col min="5911" max="6150" width="9.140625" style="2"/>
-    <col min="6151" max="6151" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6152" max="6154" width="9.140625" style="2"/>
-    <col min="6155" max="6155" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6156" max="6158" width="9.140625" style="2"/>
+    <col min="5911" max="6150" width="9.1796875" style="2"/>
+    <col min="6151" max="6151" width="10.7265625" style="2" customWidth="1"/>
+    <col min="6152" max="6154" width="9.1796875" style="2"/>
+    <col min="6155" max="6155" width="19.7265625" style="2" customWidth="1"/>
+    <col min="6156" max="6158" width="9.1796875" style="2"/>
     <col min="6159" max="6159" width="16" style="2" customWidth="1"/>
-    <col min="6160" max="6165" width="9.140625" style="2"/>
+    <col min="6160" max="6165" width="9.1796875" style="2"/>
     <col min="6166" max="6166" width="11" style="2" customWidth="1"/>
-    <col min="6167" max="6406" width="9.140625" style="2"/>
-    <col min="6407" max="6407" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6408" max="6410" width="9.140625" style="2"/>
-    <col min="6411" max="6411" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6412" max="6414" width="9.140625" style="2"/>
+    <col min="6167" max="6406" width="9.1796875" style="2"/>
+    <col min="6407" max="6407" width="10.7265625" style="2" customWidth="1"/>
+    <col min="6408" max="6410" width="9.1796875" style="2"/>
+    <col min="6411" max="6411" width="19.7265625" style="2" customWidth="1"/>
+    <col min="6412" max="6414" width="9.1796875" style="2"/>
     <col min="6415" max="6415" width="16" style="2" customWidth="1"/>
-    <col min="6416" max="6421" width="9.140625" style="2"/>
+    <col min="6416" max="6421" width="9.1796875" style="2"/>
     <col min="6422" max="6422" width="11" style="2" customWidth="1"/>
-    <col min="6423" max="6662" width="9.140625" style="2"/>
-    <col min="6663" max="6663" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6664" max="6666" width="9.140625" style="2"/>
-    <col min="6667" max="6667" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6668" max="6670" width="9.140625" style="2"/>
+    <col min="6423" max="6662" width="9.1796875" style="2"/>
+    <col min="6663" max="6663" width="10.7265625" style="2" customWidth="1"/>
+    <col min="6664" max="6666" width="9.1796875" style="2"/>
+    <col min="6667" max="6667" width="19.7265625" style="2" customWidth="1"/>
+    <col min="6668" max="6670" width="9.1796875" style="2"/>
     <col min="6671" max="6671" width="16" style="2" customWidth="1"/>
-    <col min="6672" max="6677" width="9.140625" style="2"/>
+    <col min="6672" max="6677" width="9.1796875" style="2"/>
     <col min="6678" max="6678" width="11" style="2" customWidth="1"/>
-    <col min="6679" max="6918" width="9.140625" style="2"/>
-    <col min="6919" max="6919" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6920" max="6922" width="9.140625" style="2"/>
-    <col min="6923" max="6923" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6924" max="6926" width="9.140625" style="2"/>
+    <col min="6679" max="6918" width="9.1796875" style="2"/>
+    <col min="6919" max="6919" width="10.7265625" style="2" customWidth="1"/>
+    <col min="6920" max="6922" width="9.1796875" style="2"/>
+    <col min="6923" max="6923" width="19.7265625" style="2" customWidth="1"/>
+    <col min="6924" max="6926" width="9.1796875" style="2"/>
     <col min="6927" max="6927" width="16" style="2" customWidth="1"/>
-    <col min="6928" max="6933" width="9.140625" style="2"/>
+    <col min="6928" max="6933" width="9.1796875" style="2"/>
     <col min="6934" max="6934" width="11" style="2" customWidth="1"/>
-    <col min="6935" max="7174" width="9.140625" style="2"/>
-    <col min="7175" max="7175" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7176" max="7178" width="9.140625" style="2"/>
-    <col min="7179" max="7179" width="19.7109375" style="2" customWidth="1"/>
-    <col min="7180" max="7182" width="9.140625" style="2"/>
+    <col min="6935" max="7174" width="9.1796875" style="2"/>
+    <col min="7175" max="7175" width="10.7265625" style="2" customWidth="1"/>
+    <col min="7176" max="7178" width="9.1796875" style="2"/>
+    <col min="7179" max="7179" width="19.7265625" style="2" customWidth="1"/>
+    <col min="7180" max="7182" width="9.1796875" style="2"/>
     <col min="7183" max="7183" width="16" style="2" customWidth="1"/>
-    <col min="7184" max="7189" width="9.140625" style="2"/>
+    <col min="7184" max="7189" width="9.1796875" style="2"/>
     <col min="7190" max="7190" width="11" style="2" customWidth="1"/>
-    <col min="7191" max="7430" width="9.140625" style="2"/>
-    <col min="7431" max="7431" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7432" max="7434" width="9.140625" style="2"/>
-    <col min="7435" max="7435" width="19.7109375" style="2" customWidth="1"/>
-    <col min="7436" max="7438" width="9.140625" style="2"/>
+    <col min="7191" max="7430" width="9.1796875" style="2"/>
+    <col min="7431" max="7431" width="10.7265625" style="2" customWidth="1"/>
+    <col min="7432" max="7434" width="9.1796875" style="2"/>
+    <col min="7435" max="7435" width="19.7265625" style="2" customWidth="1"/>
+    <col min="7436" max="7438" width="9.1796875" style="2"/>
     <col min="7439" max="7439" width="16" style="2" customWidth="1"/>
-    <col min="7440" max="7445" width="9.140625" style="2"/>
+    <col min="7440" max="7445" width="9.1796875" style="2"/>
     <col min="7446" max="7446" width="11" style="2" customWidth="1"/>
-    <col min="7447" max="7686" width="9.140625" style="2"/>
-    <col min="7687" max="7687" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7688" max="7690" width="9.140625" style="2"/>
-    <col min="7691" max="7691" width="19.7109375" style="2" customWidth="1"/>
-    <col min="7692" max="7694" width="9.140625" style="2"/>
+    <col min="7447" max="7686" width="9.1796875" style="2"/>
+    <col min="7687" max="7687" width="10.7265625" style="2" customWidth="1"/>
+    <col min="7688" max="7690" width="9.1796875" style="2"/>
+    <col min="7691" max="7691" width="19.7265625" style="2" customWidth="1"/>
+    <col min="7692" max="7694" width="9.1796875" style="2"/>
     <col min="7695" max="7695" width="16" style="2" customWidth="1"/>
-    <col min="7696" max="7701" width="9.140625" style="2"/>
+    <col min="7696" max="7701" width="9.1796875" style="2"/>
     <col min="7702" max="7702" width="11" style="2" customWidth="1"/>
-    <col min="7703" max="7942" width="9.140625" style="2"/>
-    <col min="7943" max="7943" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7944" max="7946" width="9.140625" style="2"/>
-    <col min="7947" max="7947" width="19.7109375" style="2" customWidth="1"/>
-    <col min="7948" max="7950" width="9.140625" style="2"/>
+    <col min="7703" max="7942" width="9.1796875" style="2"/>
+    <col min="7943" max="7943" width="10.7265625" style="2" customWidth="1"/>
+    <col min="7944" max="7946" width="9.1796875" style="2"/>
+    <col min="7947" max="7947" width="19.7265625" style="2" customWidth="1"/>
+    <col min="7948" max="7950" width="9.1796875" style="2"/>
     <col min="7951" max="7951" width="16" style="2" customWidth="1"/>
-    <col min="7952" max="7957" width="9.140625" style="2"/>
+    <col min="7952" max="7957" width="9.1796875" style="2"/>
     <col min="7958" max="7958" width="11" style="2" customWidth="1"/>
-    <col min="7959" max="8198" width="9.140625" style="2"/>
-    <col min="8199" max="8199" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8200" max="8202" width="9.140625" style="2"/>
-    <col min="8203" max="8203" width="19.7109375" style="2" customWidth="1"/>
-    <col min="8204" max="8206" width="9.140625" style="2"/>
+    <col min="7959" max="8198" width="9.1796875" style="2"/>
+    <col min="8199" max="8199" width="10.7265625" style="2" customWidth="1"/>
+    <col min="8200" max="8202" width="9.1796875" style="2"/>
+    <col min="8203" max="8203" width="19.7265625" style="2" customWidth="1"/>
+    <col min="8204" max="8206" width="9.1796875" style="2"/>
     <col min="8207" max="8207" width="16" style="2" customWidth="1"/>
-    <col min="8208" max="8213" width="9.140625" style="2"/>
+    <col min="8208" max="8213" width="9.1796875" style="2"/>
     <col min="8214" max="8214" width="11" style="2" customWidth="1"/>
-    <col min="8215" max="8454" width="9.140625" style="2"/>
-    <col min="8455" max="8455" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8456" max="8458" width="9.140625" style="2"/>
-    <col min="8459" max="8459" width="19.7109375" style="2" customWidth="1"/>
-    <col min="8460" max="8462" width="9.140625" style="2"/>
+    <col min="8215" max="8454" width="9.1796875" style="2"/>
+    <col min="8455" max="8455" width="10.7265625" style="2" customWidth="1"/>
+    <col min="8456" max="8458" width="9.1796875" style="2"/>
+    <col min="8459" max="8459" width="19.7265625" style="2" customWidth="1"/>
+    <col min="8460" max="8462" width="9.1796875" style="2"/>
     <col min="8463" max="8463" width="16" style="2" customWidth="1"/>
-    <col min="8464" max="8469" width="9.140625" style="2"/>
+    <col min="8464" max="8469" width="9.1796875" style="2"/>
     <col min="8470" max="8470" width="11" style="2" customWidth="1"/>
-    <col min="8471" max="8710" width="9.140625" style="2"/>
-    <col min="8711" max="8711" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8712" max="8714" width="9.140625" style="2"/>
-    <col min="8715" max="8715" width="19.7109375" style="2" customWidth="1"/>
-    <col min="8716" max="8718" width="9.140625" style="2"/>
+    <col min="8471" max="8710" width="9.1796875" style="2"/>
+    <col min="8711" max="8711" width="10.7265625" style="2" customWidth="1"/>
+    <col min="8712" max="8714" width="9.1796875" style="2"/>
+    <col min="8715" max="8715" width="19.7265625" style="2" customWidth="1"/>
+    <col min="8716" max="8718" width="9.1796875" style="2"/>
     <col min="8719" max="8719" width="16" style="2" customWidth="1"/>
-    <col min="8720" max="8725" width="9.140625" style="2"/>
+    <col min="8720" max="8725" width="9.1796875" style="2"/>
     <col min="8726" max="8726" width="11" style="2" customWidth="1"/>
-    <col min="8727" max="8966" width="9.140625" style="2"/>
-    <col min="8967" max="8967" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8968" max="8970" width="9.140625" style="2"/>
-    <col min="8971" max="8971" width="19.7109375" style="2" customWidth="1"/>
-    <col min="8972" max="8974" width="9.140625" style="2"/>
+    <col min="8727" max="8966" width="9.1796875" style="2"/>
+    <col min="8967" max="8967" width="10.7265625" style="2" customWidth="1"/>
+    <col min="8968" max="8970" width="9.1796875" style="2"/>
+    <col min="8971" max="8971" width="19.7265625" style="2" customWidth="1"/>
+    <col min="8972" max="8974" width="9.1796875" style="2"/>
     <col min="8975" max="8975" width="16" style="2" customWidth="1"/>
-    <col min="8976" max="8981" width="9.140625" style="2"/>
+    <col min="8976" max="8981" width="9.1796875" style="2"/>
     <col min="8982" max="8982" width="11" style="2" customWidth="1"/>
-    <col min="8983" max="9222" width="9.140625" style="2"/>
-    <col min="9223" max="9223" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9224" max="9226" width="9.140625" style="2"/>
-    <col min="9227" max="9227" width="19.7109375" style="2" customWidth="1"/>
-    <col min="9228" max="9230" width="9.140625" style="2"/>
+    <col min="8983" max="9222" width="9.1796875" style="2"/>
+    <col min="9223" max="9223" width="10.7265625" style="2" customWidth="1"/>
+    <col min="9224" max="9226" width="9.1796875" style="2"/>
+    <col min="9227" max="9227" width="19.7265625" style="2" customWidth="1"/>
+    <col min="9228" max="9230" width="9.1796875" style="2"/>
     <col min="9231" max="9231" width="16" style="2" customWidth="1"/>
-    <col min="9232" max="9237" width="9.140625" style="2"/>
+    <col min="9232" max="9237" width="9.1796875" style="2"/>
     <col min="9238" max="9238" width="11" style="2" customWidth="1"/>
-    <col min="9239" max="9478" width="9.140625" style="2"/>
-    <col min="9479" max="9479" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9480" max="9482" width="9.140625" style="2"/>
-    <col min="9483" max="9483" width="19.7109375" style="2" customWidth="1"/>
-    <col min="9484" max="9486" width="9.140625" style="2"/>
+    <col min="9239" max="9478" width="9.1796875" style="2"/>
+    <col min="9479" max="9479" width="10.7265625" style="2" customWidth="1"/>
+    <col min="9480" max="9482" width="9.1796875" style="2"/>
+    <col min="9483" max="9483" width="19.7265625" style="2" customWidth="1"/>
+    <col min="9484" max="9486" width="9.1796875" style="2"/>
     <col min="9487" max="9487" width="16" style="2" customWidth="1"/>
-    <col min="9488" max="9493" width="9.140625" style="2"/>
+    <col min="9488" max="9493" width="9.1796875" style="2"/>
     <col min="9494" max="9494" width="11" style="2" customWidth="1"/>
-    <col min="9495" max="9734" width="9.140625" style="2"/>
-    <col min="9735" max="9735" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9736" max="9738" width="9.140625" style="2"/>
-    <col min="9739" max="9739" width="19.7109375" style="2" customWidth="1"/>
-    <col min="9740" max="9742" width="9.140625" style="2"/>
+    <col min="9495" max="9734" width="9.1796875" style="2"/>
+    <col min="9735" max="9735" width="10.7265625" style="2" customWidth="1"/>
+    <col min="9736" max="9738" width="9.1796875" style="2"/>
+    <col min="9739" max="9739" width="19.7265625" style="2" customWidth="1"/>
+    <col min="9740" max="9742" width="9.1796875" style="2"/>
     <col min="9743" max="9743" width="16" style="2" customWidth="1"/>
-    <col min="9744" max="9749" width="9.140625" style="2"/>
+    <col min="9744" max="9749" width="9.1796875" style="2"/>
     <col min="9750" max="9750" width="11" style="2" customWidth="1"/>
-    <col min="9751" max="9990" width="9.140625" style="2"/>
-    <col min="9991" max="9991" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9992" max="9994" width="9.140625" style="2"/>
-    <col min="9995" max="9995" width="19.7109375" style="2" customWidth="1"/>
-    <col min="9996" max="9998" width="9.140625" style="2"/>
+    <col min="9751" max="9990" width="9.1796875" style="2"/>
+    <col min="9991" max="9991" width="10.7265625" style="2" customWidth="1"/>
+    <col min="9992" max="9994" width="9.1796875" style="2"/>
+    <col min="9995" max="9995" width="19.7265625" style="2" customWidth="1"/>
+    <col min="9996" max="9998" width="9.1796875" style="2"/>
     <col min="9999" max="9999" width="16" style="2" customWidth="1"/>
-    <col min="10000" max="10005" width="9.140625" style="2"/>
+    <col min="10000" max="10005" width="9.1796875" style="2"/>
     <col min="10006" max="10006" width="11" style="2" customWidth="1"/>
-    <col min="10007" max="10246" width="9.140625" style="2"/>
-    <col min="10247" max="10247" width="10.7109375" style="2" customWidth="1"/>
-    <col min="10248" max="10250" width="9.140625" style="2"/>
-    <col min="10251" max="10251" width="19.7109375" style="2" customWidth="1"/>
-    <col min="10252" max="10254" width="9.140625" style="2"/>
+    <col min="10007" max="10246" width="9.1796875" style="2"/>
+    <col min="10247" max="10247" width="10.7265625" style="2" customWidth="1"/>
+    <col min="10248" max="10250" width="9.1796875" style="2"/>
+    <col min="10251" max="10251" width="19.7265625" style="2" customWidth="1"/>
+    <col min="10252" max="10254" width="9.1796875" style="2"/>
     <col min="10255" max="10255" width="16" style="2" customWidth="1"/>
-    <col min="10256" max="10261" width="9.140625" style="2"/>
+    <col min="10256" max="10261" width="9.1796875" style="2"/>
     <col min="10262" max="10262" width="11" style="2" customWidth="1"/>
-    <col min="10263" max="10502" width="9.140625" style="2"/>
-    <col min="10503" max="10503" width="10.7109375" style="2" customWidth="1"/>
-    <col min="10504" max="10506" width="9.140625" style="2"/>
-    <col min="10507" max="10507" width="19.7109375" style="2" customWidth="1"/>
-    <col min="10508" max="10510" width="9.140625" style="2"/>
+    <col min="10263" max="10502" width="9.1796875" style="2"/>
+    <col min="10503" max="10503" width="10.7265625" style="2" customWidth="1"/>
+    <col min="10504" max="10506" width="9.1796875" style="2"/>
+    <col min="10507" max="10507" width="19.7265625" style="2" customWidth="1"/>
+    <col min="10508" max="10510" width="9.1796875" style="2"/>
     <col min="10511" max="10511" width="16" style="2" customWidth="1"/>
-    <col min="10512" max="10517" width="9.140625" style="2"/>
+    <col min="10512" max="10517" width="9.1796875" style="2"/>
     <col min="10518" max="10518" width="11" style="2" customWidth="1"/>
-    <col min="10519" max="10758" width="9.140625" style="2"/>
-    <col min="10759" max="10759" width="10.7109375" style="2" customWidth="1"/>
-    <col min="10760" max="10762" width="9.140625" style="2"/>
-    <col min="10763" max="10763" width="19.7109375" style="2" customWidth="1"/>
-    <col min="10764" max="10766" width="9.140625" style="2"/>
+    <col min="10519" max="10758" width="9.1796875" style="2"/>
+    <col min="10759" max="10759" width="10.7265625" style="2" customWidth="1"/>
+    <col min="10760" max="10762" width="9.1796875" style="2"/>
+    <col min="10763" max="10763" width="19.7265625" style="2" customWidth="1"/>
+    <col min="10764" max="10766" width="9.1796875" style="2"/>
     <col min="10767" max="10767" width="16" style="2" customWidth="1"/>
-    <col min="10768" max="10773" width="9.140625" style="2"/>
+    <col min="10768" max="10773" width="9.1796875" style="2"/>
     <col min="10774" max="10774" width="11" style="2" customWidth="1"/>
-    <col min="10775" max="11014" width="9.140625" style="2"/>
-    <col min="11015" max="11015" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11016" max="11018" width="9.140625" style="2"/>
-    <col min="11019" max="11019" width="19.7109375" style="2" customWidth="1"/>
-    <col min="11020" max="11022" width="9.140625" style="2"/>
+    <col min="10775" max="11014" width="9.1796875" style="2"/>
+    <col min="11015" max="11015" width="10.7265625" style="2" customWidth="1"/>
+    <col min="11016" max="11018" width="9.1796875" style="2"/>
+    <col min="11019" max="11019" width="19.7265625" style="2" customWidth="1"/>
+    <col min="11020" max="11022" width="9.1796875" style="2"/>
     <col min="11023" max="11023" width="16" style="2" customWidth="1"/>
-    <col min="11024" max="11029" width="9.140625" style="2"/>
+    <col min="11024" max="11029" width="9.1796875" style="2"/>
     <col min="11030" max="11030" width="11" style="2" customWidth="1"/>
-    <col min="11031" max="11270" width="9.140625" style="2"/>
-    <col min="11271" max="11271" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11272" max="11274" width="9.140625" style="2"/>
-    <col min="11275" max="11275" width="19.7109375" style="2" customWidth="1"/>
-    <col min="11276" max="11278" width="9.140625" style="2"/>
+    <col min="11031" max="11270" width="9.1796875" style="2"/>
+    <col min="11271" max="11271" width="10.7265625" style="2" customWidth="1"/>
+    <col min="11272" max="11274" width="9.1796875" style="2"/>
+    <col min="11275" max="11275" width="19.7265625" style="2" customWidth="1"/>
+    <col min="11276" max="11278" width="9.1796875" style="2"/>
     <col min="11279" max="11279" width="16" style="2" customWidth="1"/>
-    <col min="11280" max="11285" width="9.140625" style="2"/>
+    <col min="11280" max="11285" width="9.1796875" style="2"/>
     <col min="11286" max="11286" width="11" style="2" customWidth="1"/>
-    <col min="11287" max="11526" width="9.140625" style="2"/>
-    <col min="11527" max="11527" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11528" max="11530" width="9.140625" style="2"/>
-    <col min="11531" max="11531" width="19.7109375" style="2" customWidth="1"/>
-    <col min="11532" max="11534" width="9.140625" style="2"/>
+    <col min="11287" max="11526" width="9.1796875" style="2"/>
+    <col min="11527" max="11527" width="10.7265625" style="2" customWidth="1"/>
+    <col min="11528" max="11530" width="9.1796875" style="2"/>
+    <col min="11531" max="11531" width="19.7265625" style="2" customWidth="1"/>
+    <col min="11532" max="11534" width="9.1796875" style="2"/>
     <col min="11535" max="11535" width="16" style="2" customWidth="1"/>
-    <col min="11536" max="11541" width="9.140625" style="2"/>
+    <col min="11536" max="11541" width="9.1796875" style="2"/>
     <col min="11542" max="11542" width="11" style="2" customWidth="1"/>
-    <col min="11543" max="11782" width="9.140625" style="2"/>
-    <col min="11783" max="11783" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11784" max="11786" width="9.140625" style="2"/>
-    <col min="11787" max="11787" width="19.7109375" style="2" customWidth="1"/>
-    <col min="11788" max="11790" width="9.140625" style="2"/>
+    <col min="11543" max="11782" width="9.1796875" style="2"/>
+    <col min="11783" max="11783" width="10.7265625" style="2" customWidth="1"/>
+    <col min="11784" max="11786" width="9.1796875" style="2"/>
+    <col min="11787" max="11787" width="19.7265625" style="2" customWidth="1"/>
+    <col min="11788" max="11790" width="9.1796875" style="2"/>
     <col min="11791" max="11791" width="16" style="2" customWidth="1"/>
-    <col min="11792" max="11797" width="9.140625" style="2"/>
+    <col min="11792" max="11797" width="9.1796875" style="2"/>
     <col min="11798" max="11798" width="11" style="2" customWidth="1"/>
-    <col min="11799" max="12038" width="9.140625" style="2"/>
-    <col min="12039" max="12039" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12040" max="12042" width="9.140625" style="2"/>
-    <col min="12043" max="12043" width="19.7109375" style="2" customWidth="1"/>
-    <col min="12044" max="12046" width="9.140625" style="2"/>
+    <col min="11799" max="12038" width="9.1796875" style="2"/>
+    <col min="12039" max="12039" width="10.7265625" style="2" customWidth="1"/>
+    <col min="12040" max="12042" width="9.1796875" style="2"/>
+    <col min="12043" max="12043" width="19.7265625" style="2" customWidth="1"/>
+    <col min="12044" max="12046" width="9.1796875" style="2"/>
     <col min="12047" max="12047" width="16" style="2" customWidth="1"/>
-    <col min="12048" max="12053" width="9.140625" style="2"/>
+    <col min="12048" max="12053" width="9.1796875" style="2"/>
     <col min="12054" max="12054" width="11" style="2" customWidth="1"/>
-    <col min="12055" max="12294" width="9.140625" style="2"/>
-    <col min="12295" max="12295" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12296" max="12298" width="9.140625" style="2"/>
-    <col min="12299" max="12299" width="19.7109375" style="2" customWidth="1"/>
-    <col min="12300" max="12302" width="9.140625" style="2"/>
+    <col min="12055" max="12294" width="9.1796875" style="2"/>
+    <col min="12295" max="12295" width="10.7265625" style="2" customWidth="1"/>
+    <col min="12296" max="12298" width="9.1796875" style="2"/>
+    <col min="12299" max="12299" width="19.7265625" style="2" customWidth="1"/>
+    <col min="12300" max="12302" width="9.1796875" style="2"/>
     <col min="12303" max="12303" width="16" style="2" customWidth="1"/>
-    <col min="12304" max="12309" width="9.140625" style="2"/>
+    <col min="12304" max="12309" width="9.1796875" style="2"/>
     <col min="12310" max="12310" width="11" style="2" customWidth="1"/>
-    <col min="12311" max="12550" width="9.140625" style="2"/>
-    <col min="12551" max="12551" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12552" max="12554" width="9.140625" style="2"/>
-    <col min="12555" max="12555" width="19.7109375" style="2" customWidth="1"/>
-    <col min="12556" max="12558" width="9.140625" style="2"/>
+    <col min="12311" max="12550" width="9.1796875" style="2"/>
+    <col min="12551" max="12551" width="10.7265625" style="2" customWidth="1"/>
+    <col min="12552" max="12554" width="9.1796875" style="2"/>
+    <col min="12555" max="12555" width="19.7265625" style="2" customWidth="1"/>
+    <col min="12556" max="12558" width="9.1796875" style="2"/>
     <col min="12559" max="12559" width="16" style="2" customWidth="1"/>
-    <col min="12560" max="12565" width="9.140625" style="2"/>
+    <col min="12560" max="12565" width="9.1796875" style="2"/>
     <col min="12566" max="12566" width="11" style="2" customWidth="1"/>
-    <col min="12567" max="12806" width="9.140625" style="2"/>
-    <col min="12807" max="12807" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12808" max="12810" width="9.140625" style="2"/>
-    <col min="12811" max="12811" width="19.7109375" style="2" customWidth="1"/>
-    <col min="12812" max="12814" width="9.140625" style="2"/>
+    <col min="12567" max="12806" width="9.1796875" style="2"/>
+    <col min="12807" max="12807" width="10.7265625" style="2" customWidth="1"/>
+    <col min="12808" max="12810" width="9.1796875" style="2"/>
+    <col min="12811" max="12811" width="19.7265625" style="2" customWidth="1"/>
+    <col min="12812" max="12814" width="9.1796875" style="2"/>
     <col min="12815" max="12815" width="16" style="2" customWidth="1"/>
-    <col min="12816" max="12821" width="9.140625" style="2"/>
+    <col min="12816" max="12821" width="9.1796875" style="2"/>
     <col min="12822" max="12822" width="11" style="2" customWidth="1"/>
-    <col min="12823" max="13062" width="9.140625" style="2"/>
-    <col min="13063" max="13063" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13064" max="13066" width="9.140625" style="2"/>
-    <col min="13067" max="13067" width="19.7109375" style="2" customWidth="1"/>
-    <col min="13068" max="13070" width="9.140625" style="2"/>
+    <col min="12823" max="13062" width="9.1796875" style="2"/>
+    <col min="13063" max="13063" width="10.7265625" style="2" customWidth="1"/>
+    <col min="13064" max="13066" width="9.1796875" style="2"/>
+    <col min="13067" max="13067" width="19.7265625" style="2" customWidth="1"/>
+    <col min="13068" max="13070" width="9.1796875" style="2"/>
     <col min="13071" max="13071" width="16" style="2" customWidth="1"/>
-    <col min="13072" max="13077" width="9.140625" style="2"/>
+    <col min="13072" max="13077" width="9.1796875" style="2"/>
     <col min="13078" max="13078" width="11" style="2" customWidth="1"/>
-    <col min="13079" max="13318" width="9.140625" style="2"/>
-    <col min="13319" max="13319" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13320" max="13322" width="9.140625" style="2"/>
-    <col min="13323" max="13323" width="19.7109375" style="2" customWidth="1"/>
-    <col min="13324" max="13326" width="9.140625" style="2"/>
+    <col min="13079" max="13318" width="9.1796875" style="2"/>
+    <col min="13319" max="13319" width="10.7265625" style="2" customWidth="1"/>
+    <col min="13320" max="13322" width="9.1796875" style="2"/>
+    <col min="13323" max="13323" width="19.7265625" style="2" customWidth="1"/>
+    <col min="13324" max="13326" width="9.1796875" style="2"/>
     <col min="13327" max="13327" width="16" style="2" customWidth="1"/>
-    <col min="13328" max="13333" width="9.140625" style="2"/>
+    <col min="13328" max="13333" width="9.1796875" style="2"/>
     <col min="13334" max="13334" width="11" style="2" customWidth="1"/>
-    <col min="13335" max="13574" width="9.140625" style="2"/>
-    <col min="13575" max="13575" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13576" max="13578" width="9.140625" style="2"/>
-    <col min="13579" max="13579" width="19.7109375" style="2" customWidth="1"/>
-    <col min="13580" max="13582" width="9.140625" style="2"/>
+    <col min="13335" max="13574" width="9.1796875" style="2"/>
+    <col min="13575" max="13575" width="10.7265625" style="2" customWidth="1"/>
+    <col min="13576" max="13578" width="9.1796875" style="2"/>
+    <col min="13579" max="13579" width="19.7265625" style="2" customWidth="1"/>
+    <col min="13580" max="13582" width="9.1796875" style="2"/>
     <col min="13583" max="13583" width="16" style="2" customWidth="1"/>
-    <col min="13584" max="13589" width="9.140625" style="2"/>
+    <col min="13584" max="13589" width="9.1796875" style="2"/>
     <col min="13590" max="13590" width="11" style="2" customWidth="1"/>
-    <col min="13591" max="13830" width="9.140625" style="2"/>
-    <col min="13831" max="13831" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13832" max="13834" width="9.140625" style="2"/>
-    <col min="13835" max="13835" width="19.7109375" style="2" customWidth="1"/>
-    <col min="13836" max="13838" width="9.140625" style="2"/>
+    <col min="13591" max="13830" width="9.1796875" style="2"/>
+    <col min="13831" max="13831" width="10.7265625" style="2" customWidth="1"/>
+    <col min="13832" max="13834" width="9.1796875" style="2"/>
+    <col min="13835" max="13835" width="19.7265625" style="2" customWidth="1"/>
+    <col min="13836" max="13838" width="9.1796875" style="2"/>
     <col min="13839" max="13839" width="16" style="2" customWidth="1"/>
-    <col min="13840" max="13845" width="9.140625" style="2"/>
+    <col min="13840" max="13845" width="9.1796875" style="2"/>
     <col min="13846" max="13846" width="11" style="2" customWidth="1"/>
-    <col min="13847" max="14086" width="9.140625" style="2"/>
-    <col min="14087" max="14087" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14088" max="14090" width="9.140625" style="2"/>
-    <col min="14091" max="14091" width="19.7109375" style="2" customWidth="1"/>
-    <col min="14092" max="14094" width="9.140625" style="2"/>
+    <col min="13847" max="14086" width="9.1796875" style="2"/>
+    <col min="14087" max="14087" width="10.7265625" style="2" customWidth="1"/>
+    <col min="14088" max="14090" width="9.1796875" style="2"/>
+    <col min="14091" max="14091" width="19.7265625" style="2" customWidth="1"/>
+    <col min="14092" max="14094" width="9.1796875" style="2"/>
     <col min="14095" max="14095" width="16" style="2" customWidth="1"/>
-    <col min="14096" max="14101" width="9.140625" style="2"/>
+    <col min="14096" max="14101" width="9.1796875" style="2"/>
     <col min="14102" max="14102" width="11" style="2" customWidth="1"/>
-    <col min="14103" max="14342" width="9.140625" style="2"/>
-    <col min="14343" max="14343" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14344" max="14346" width="9.140625" style="2"/>
-    <col min="14347" max="14347" width="19.7109375" style="2" customWidth="1"/>
-    <col min="14348" max="14350" width="9.140625" style="2"/>
+    <col min="14103" max="14342" width="9.1796875" style="2"/>
+    <col min="14343" max="14343" width="10.7265625" style="2" customWidth="1"/>
+    <col min="14344" max="14346" width="9.1796875" style="2"/>
+    <col min="14347" max="14347" width="19.7265625" style="2" customWidth="1"/>
+    <col min="14348" max="14350" width="9.1796875" style="2"/>
     <col min="14351" max="14351" width="16" style="2" customWidth="1"/>
-    <col min="14352" max="14357" width="9.140625" style="2"/>
+    <col min="14352" max="14357" width="9.1796875" style="2"/>
     <col min="14358" max="14358" width="11" style="2" customWidth="1"/>
-    <col min="14359" max="14598" width="9.140625" style="2"/>
-    <col min="14599" max="14599" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14600" max="14602" width="9.140625" style="2"/>
-    <col min="14603" max="14603" width="19.7109375" style="2" customWidth="1"/>
-    <col min="14604" max="14606" width="9.140625" style="2"/>
+    <col min="14359" max="14598" width="9.1796875" style="2"/>
+    <col min="14599" max="14599" width="10.7265625" style="2" customWidth="1"/>
+    <col min="14600" max="14602" width="9.1796875" style="2"/>
+    <col min="14603" max="14603" width="19.7265625" style="2" customWidth="1"/>
+    <col min="14604" max="14606" width="9.1796875" style="2"/>
     <col min="14607" max="14607" width="16" style="2" customWidth="1"/>
-    <col min="14608" max="14613" width="9.140625" style="2"/>
+    <col min="14608" max="14613" width="9.1796875" style="2"/>
     <col min="14614" max="14614" width="11" style="2" customWidth="1"/>
-    <col min="14615" max="14854" width="9.140625" style="2"/>
-    <col min="14855" max="14855" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14856" max="14858" width="9.140625" style="2"/>
-    <col min="14859" max="14859" width="19.7109375" style="2" customWidth="1"/>
-    <col min="14860" max="14862" width="9.140625" style="2"/>
+    <col min="14615" max="14854" width="9.1796875" style="2"/>
+    <col min="14855" max="14855" width="10.7265625" style="2" customWidth="1"/>
+    <col min="14856" max="14858" width="9.1796875" style="2"/>
+    <col min="14859" max="14859" width="19.7265625" style="2" customWidth="1"/>
+    <col min="14860" max="14862" width="9.1796875" style="2"/>
     <col min="14863" max="14863" width="16" style="2" customWidth="1"/>
-    <col min="14864" max="14869" width="9.140625" style="2"/>
+    <col min="14864" max="14869" width="9.1796875" style="2"/>
     <col min="14870" max="14870" width="11" style="2" customWidth="1"/>
-    <col min="14871" max="15110" width="9.140625" style="2"/>
-    <col min="15111" max="15111" width="10.7109375" style="2" customWidth="1"/>
-    <col min="15112" max="15114" width="9.140625" style="2"/>
-    <col min="15115" max="15115" width="19.7109375" style="2" customWidth="1"/>
-    <col min="15116" max="15118" width="9.140625" style="2"/>
+    <col min="14871" max="15110" width="9.1796875" style="2"/>
+    <col min="15111" max="15111" width="10.7265625" style="2" customWidth="1"/>
+    <col min="15112" max="15114" width="9.1796875" style="2"/>
+    <col min="15115" max="15115" width="19.7265625" style="2" customWidth="1"/>
+    <col min="15116" max="15118" width="9.1796875" style="2"/>
     <col min="15119" max="15119" width="16" style="2" customWidth="1"/>
-    <col min="15120" max="15125" width="9.140625" style="2"/>
+    <col min="15120" max="15125" width="9.1796875" style="2"/>
     <col min="15126" max="15126" width="11" style="2" customWidth="1"/>
-    <col min="15127" max="15366" width="9.140625" style="2"/>
-    <col min="15367" max="15367" width="10.7109375" style="2" customWidth="1"/>
-    <col min="15368" max="15370" width="9.140625" style="2"/>
-    <col min="15371" max="15371" width="19.7109375" style="2" customWidth="1"/>
-    <col min="15372" max="15374" width="9.140625" style="2"/>
+    <col min="15127" max="15366" width="9.1796875" style="2"/>
+    <col min="15367" max="15367" width="10.7265625" style="2" customWidth="1"/>
+    <col min="15368" max="15370" width="9.1796875" style="2"/>
+    <col min="15371" max="15371" width="19.7265625" style="2" customWidth="1"/>
+    <col min="15372" max="15374" width="9.1796875" style="2"/>
     <col min="15375" max="15375" width="16" style="2" customWidth="1"/>
-    <col min="15376" max="15381" width="9.140625" style="2"/>
+    <col min="15376" max="15381" width="9.1796875" style="2"/>
     <col min="15382" max="15382" width="11" style="2" customWidth="1"/>
-    <col min="15383" max="15622" width="9.140625" style="2"/>
-    <col min="15623" max="15623" width="10.7109375" style="2" customWidth="1"/>
-    <col min="15624" max="15626" width="9.140625" style="2"/>
-    <col min="15627" max="15627" width="19.7109375" style="2" customWidth="1"/>
-    <col min="15628" max="15630" width="9.140625" style="2"/>
+    <col min="15383" max="15622" width="9.1796875" style="2"/>
+    <col min="15623" max="15623" width="10.7265625" style="2" customWidth="1"/>
+    <col min="15624" max="15626" width="9.1796875" style="2"/>
+    <col min="15627" max="15627" width="19.7265625" style="2" customWidth="1"/>
+    <col min="15628" max="15630" width="9.1796875" style="2"/>
     <col min="15631" max="15631" width="16" style="2" customWidth="1"/>
-    <col min="15632" max="15637" width="9.140625" style="2"/>
+    <col min="15632" max="15637" width="9.1796875" style="2"/>
     <col min="15638" max="15638" width="11" style="2" customWidth="1"/>
-    <col min="15639" max="15878" width="9.140625" style="2"/>
-    <col min="15879" max="15879" width="10.7109375" style="2" customWidth="1"/>
-    <col min="15880" max="15882" width="9.140625" style="2"/>
-    <col min="15883" max="15883" width="19.7109375" style="2" customWidth="1"/>
-    <col min="15884" max="15886" width="9.140625" style="2"/>
+    <col min="15639" max="15878" width="9.1796875" style="2"/>
+    <col min="15879" max="15879" width="10.7265625" style="2" customWidth="1"/>
+    <col min="15880" max="15882" width="9.1796875" style="2"/>
+    <col min="15883" max="15883" width="19.7265625" style="2" customWidth="1"/>
+    <col min="15884" max="15886" width="9.1796875" style="2"/>
     <col min="15887" max="15887" width="16" style="2" customWidth="1"/>
-    <col min="15888" max="15893" width="9.140625" style="2"/>
+    <col min="15888" max="15893" width="9.1796875" style="2"/>
     <col min="15894" max="15894" width="11" style="2" customWidth="1"/>
-    <col min="15895" max="16134" width="9.140625" style="2"/>
-    <col min="16135" max="16135" width="10.7109375" style="2" customWidth="1"/>
-    <col min="16136" max="16138" width="9.140625" style="2"/>
-    <col min="16139" max="16139" width="19.7109375" style="2" customWidth="1"/>
-    <col min="16140" max="16142" width="9.140625" style="2"/>
+    <col min="15895" max="16134" width="9.1796875" style="2"/>
+    <col min="16135" max="16135" width="10.7265625" style="2" customWidth="1"/>
+    <col min="16136" max="16138" width="9.1796875" style="2"/>
+    <col min="16139" max="16139" width="19.7265625" style="2" customWidth="1"/>
+    <col min="16140" max="16142" width="9.1796875" style="2"/>
     <col min="16143" max="16143" width="16" style="2" customWidth="1"/>
-    <col min="16144" max="16149" width="9.140625" style="2"/>
+    <col min="16144" max="16149" width="9.1796875" style="2"/>
     <col min="16150" max="16150" width="11" style="2" customWidth="1"/>
-    <col min="16151" max="16384" width="9.140625" style="2"/>
+    <col min="16151" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2546,45 +2544,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-    </row>
-    <row r="3" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+    </row>
+    <row r="3" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2602,17 +2600,17 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+    <row r="4" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2630,142 +2628,142 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:51" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:51" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
+      <c r="B8" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="84" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="72" t="s">
+      <c r="L8" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="M8" s="95"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88" t="s">
+      <c r="P8" s="94"/>
+      <c r="Q8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="89" t="s">
+      <c r="R8" s="101"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="90"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="84" t="s">
+      <c r="U8" s="94"/>
+      <c r="V8" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="85"/>
-      <c r="V8" s="72" t="s">
+      <c r="W8" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="72" t="s">
+      <c r="X8" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="X8" s="74" t="s">
+    </row>
+    <row r="9" spans="1:51" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="92"/>
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="97"/>
+      <c r="L9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="75"/>
-    </row>
-    <row r="10" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="107"/>
+    </row>
+    <row r="10" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2839,31 +2837,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="8" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
+    <row r="11" spans="1:51" s="8" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -2892,10 +2890,10 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
     </row>
-    <row r="12" spans="1:51" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:51" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:51" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2907,35 +2905,35 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:51" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:51" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-    </row>
-    <row r="15" spans="1:51" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="109"/>
+    </row>
+    <row r="15" spans="1:51" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2959,28 +2957,28 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
+    <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="89"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -2993,7 +2991,7 @@
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
     </row>
-    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3004,17 +3002,17 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -3027,72 +3025,80 @@
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
     </row>
-    <row r="18" spans="1:35" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-    </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+    </row>
+    <row r="19" spans="1:35" s="7" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="96" t="s">
+      <c r="G19" s="87"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="97"/>
-    </row>
-    <row r="20" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="33" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="34" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="37" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="38" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="39" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="40" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="41" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+      <c r="L19" s="88"/>
+    </row>
+    <row r="20" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="33" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="34" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="36" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="37" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="38" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="39" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="40" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+    <row r="41" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:X17"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -3109,19 +3115,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="R16:X16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.5.xlsx
+++ b/data/Excel/1.5.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F44D5B7-D0A9-4C52-B0C0-9463F8D2FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7151080D-4FBB-4991-8424-DE13FA008F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
     <sheet name="1.5" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.5'!$A$1:$X$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.5'!$A$1:$Y$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Дата окончания настоящего отчетного периода</t>
+  </si>
+  <si>
+    <t>Договор</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1000,6 +1003,135 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1018,131 +1150,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1156,83 +1240,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1526,63 +1535,63 @@
       <selection activeCell="F19" sqref="F19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="37.453125" style="13" customWidth="1"/>
-    <col min="7" max="9" width="10.54296875" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="13"/>
+    <col min="1" max="1" width="16.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="13" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1593,7 +1602,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
         <v>31</v>
@@ -1603,310 +1612,310 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="79" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="78"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="78"/>
-    </row>
-    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="78"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="67" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
-      <c r="B17" s="56" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
-      <c r="B18" s="56" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
-      <c r="B19" s="56" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
-      <c r="B20" s="56" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
-      <c r="B21" s="56" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
-      <c r="B22" s="58" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="58" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="70"/>
-      <c r="B24" s="49" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="56" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="66"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="56" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="66"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="56" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="66"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
-      <c r="B29" s="56" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="66"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
-      <c r="B30" s="58" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="52"/>
-      <c r="B31" s="58" t="s">
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="53"/>
-      <c r="B32" s="60" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="67"/>
+      <c r="B32" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="85"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
-    </row>
-    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
         <v>9</v>
@@ -1933,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="25" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="25" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +1955,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" s="25" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" s="25" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>0</v>
       </c>
@@ -1961,23 +1970,19 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1994,19 +1999,23 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2018,571 +2027,573 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AZ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N9" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="10.54296875" style="2" customWidth="1"/>
-    <col min="25" max="262" width="9.1796875" style="2"/>
-    <col min="263" max="263" width="10.7265625" style="2" customWidth="1"/>
-    <col min="264" max="266" width="9.1796875" style="2"/>
-    <col min="267" max="267" width="19.7265625" style="2" customWidth="1"/>
-    <col min="268" max="270" width="9.1796875" style="2"/>
-    <col min="271" max="271" width="16" style="2" customWidth="1"/>
-    <col min="272" max="277" width="9.1796875" style="2"/>
-    <col min="278" max="278" width="11" style="2" customWidth="1"/>
-    <col min="279" max="518" width="9.1796875" style="2"/>
-    <col min="519" max="519" width="10.7265625" style="2" customWidth="1"/>
-    <col min="520" max="522" width="9.1796875" style="2"/>
-    <col min="523" max="523" width="19.7265625" style="2" customWidth="1"/>
-    <col min="524" max="526" width="9.1796875" style="2"/>
-    <col min="527" max="527" width="16" style="2" customWidth="1"/>
-    <col min="528" max="533" width="9.1796875" style="2"/>
-    <col min="534" max="534" width="11" style="2" customWidth="1"/>
-    <col min="535" max="774" width="9.1796875" style="2"/>
-    <col min="775" max="775" width="10.7265625" style="2" customWidth="1"/>
-    <col min="776" max="778" width="9.1796875" style="2"/>
-    <col min="779" max="779" width="19.7265625" style="2" customWidth="1"/>
-    <col min="780" max="782" width="9.1796875" style="2"/>
-    <col min="783" max="783" width="16" style="2" customWidth="1"/>
-    <col min="784" max="789" width="9.1796875" style="2"/>
-    <col min="790" max="790" width="11" style="2" customWidth="1"/>
-    <col min="791" max="1030" width="9.1796875" style="2"/>
-    <col min="1031" max="1031" width="10.7265625" style="2" customWidth="1"/>
-    <col min="1032" max="1034" width="9.1796875" style="2"/>
-    <col min="1035" max="1035" width="19.7265625" style="2" customWidth="1"/>
-    <col min="1036" max="1038" width="9.1796875" style="2"/>
-    <col min="1039" max="1039" width="16" style="2" customWidth="1"/>
-    <col min="1040" max="1045" width="9.1796875" style="2"/>
-    <col min="1046" max="1046" width="11" style="2" customWidth="1"/>
-    <col min="1047" max="1286" width="9.1796875" style="2"/>
-    <col min="1287" max="1287" width="10.7265625" style="2" customWidth="1"/>
-    <col min="1288" max="1290" width="9.1796875" style="2"/>
-    <col min="1291" max="1291" width="19.7265625" style="2" customWidth="1"/>
-    <col min="1292" max="1294" width="9.1796875" style="2"/>
-    <col min="1295" max="1295" width="16" style="2" customWidth="1"/>
-    <col min="1296" max="1301" width="9.1796875" style="2"/>
-    <col min="1302" max="1302" width="11" style="2" customWidth="1"/>
-    <col min="1303" max="1542" width="9.1796875" style="2"/>
-    <col min="1543" max="1543" width="10.7265625" style="2" customWidth="1"/>
-    <col min="1544" max="1546" width="9.1796875" style="2"/>
-    <col min="1547" max="1547" width="19.7265625" style="2" customWidth="1"/>
-    <col min="1548" max="1550" width="9.1796875" style="2"/>
-    <col min="1551" max="1551" width="16" style="2" customWidth="1"/>
-    <col min="1552" max="1557" width="9.1796875" style="2"/>
-    <col min="1558" max="1558" width="11" style="2" customWidth="1"/>
-    <col min="1559" max="1798" width="9.1796875" style="2"/>
-    <col min="1799" max="1799" width="10.7265625" style="2" customWidth="1"/>
-    <col min="1800" max="1802" width="9.1796875" style="2"/>
-    <col min="1803" max="1803" width="19.7265625" style="2" customWidth="1"/>
-    <col min="1804" max="1806" width="9.1796875" style="2"/>
-    <col min="1807" max="1807" width="16" style="2" customWidth="1"/>
-    <col min="1808" max="1813" width="9.1796875" style="2"/>
-    <col min="1814" max="1814" width="11" style="2" customWidth="1"/>
-    <col min="1815" max="2054" width="9.1796875" style="2"/>
-    <col min="2055" max="2055" width="10.7265625" style="2" customWidth="1"/>
-    <col min="2056" max="2058" width="9.1796875" style="2"/>
-    <col min="2059" max="2059" width="19.7265625" style="2" customWidth="1"/>
-    <col min="2060" max="2062" width="9.1796875" style="2"/>
-    <col min="2063" max="2063" width="16" style="2" customWidth="1"/>
-    <col min="2064" max="2069" width="9.1796875" style="2"/>
-    <col min="2070" max="2070" width="11" style="2" customWidth="1"/>
-    <col min="2071" max="2310" width="9.1796875" style="2"/>
-    <col min="2311" max="2311" width="10.7265625" style="2" customWidth="1"/>
-    <col min="2312" max="2314" width="9.1796875" style="2"/>
-    <col min="2315" max="2315" width="19.7265625" style="2" customWidth="1"/>
-    <col min="2316" max="2318" width="9.1796875" style="2"/>
-    <col min="2319" max="2319" width="16" style="2" customWidth="1"/>
-    <col min="2320" max="2325" width="9.1796875" style="2"/>
-    <col min="2326" max="2326" width="11" style="2" customWidth="1"/>
-    <col min="2327" max="2566" width="9.1796875" style="2"/>
-    <col min="2567" max="2567" width="10.7265625" style="2" customWidth="1"/>
-    <col min="2568" max="2570" width="9.1796875" style="2"/>
-    <col min="2571" max="2571" width="19.7265625" style="2" customWidth="1"/>
-    <col min="2572" max="2574" width="9.1796875" style="2"/>
-    <col min="2575" max="2575" width="16" style="2" customWidth="1"/>
-    <col min="2576" max="2581" width="9.1796875" style="2"/>
-    <col min="2582" max="2582" width="11" style="2" customWidth="1"/>
-    <col min="2583" max="2822" width="9.1796875" style="2"/>
-    <col min="2823" max="2823" width="10.7265625" style="2" customWidth="1"/>
-    <col min="2824" max="2826" width="9.1796875" style="2"/>
-    <col min="2827" max="2827" width="19.7265625" style="2" customWidth="1"/>
-    <col min="2828" max="2830" width="9.1796875" style="2"/>
-    <col min="2831" max="2831" width="16" style="2" customWidth="1"/>
-    <col min="2832" max="2837" width="9.1796875" style="2"/>
-    <col min="2838" max="2838" width="11" style="2" customWidth="1"/>
-    <col min="2839" max="3078" width="9.1796875" style="2"/>
-    <col min="3079" max="3079" width="10.7265625" style="2" customWidth="1"/>
-    <col min="3080" max="3082" width="9.1796875" style="2"/>
-    <col min="3083" max="3083" width="19.7265625" style="2" customWidth="1"/>
-    <col min="3084" max="3086" width="9.1796875" style="2"/>
-    <col min="3087" max="3087" width="16" style="2" customWidth="1"/>
-    <col min="3088" max="3093" width="9.1796875" style="2"/>
-    <col min="3094" max="3094" width="11" style="2" customWidth="1"/>
-    <col min="3095" max="3334" width="9.1796875" style="2"/>
-    <col min="3335" max="3335" width="10.7265625" style="2" customWidth="1"/>
-    <col min="3336" max="3338" width="9.1796875" style="2"/>
-    <col min="3339" max="3339" width="19.7265625" style="2" customWidth="1"/>
-    <col min="3340" max="3342" width="9.1796875" style="2"/>
-    <col min="3343" max="3343" width="16" style="2" customWidth="1"/>
-    <col min="3344" max="3349" width="9.1796875" style="2"/>
-    <col min="3350" max="3350" width="11" style="2" customWidth="1"/>
-    <col min="3351" max="3590" width="9.1796875" style="2"/>
-    <col min="3591" max="3591" width="10.7265625" style="2" customWidth="1"/>
-    <col min="3592" max="3594" width="9.1796875" style="2"/>
-    <col min="3595" max="3595" width="19.7265625" style="2" customWidth="1"/>
-    <col min="3596" max="3598" width="9.1796875" style="2"/>
-    <col min="3599" max="3599" width="16" style="2" customWidth="1"/>
-    <col min="3600" max="3605" width="9.1796875" style="2"/>
-    <col min="3606" max="3606" width="11" style="2" customWidth="1"/>
-    <col min="3607" max="3846" width="9.1796875" style="2"/>
-    <col min="3847" max="3847" width="10.7265625" style="2" customWidth="1"/>
-    <col min="3848" max="3850" width="9.1796875" style="2"/>
-    <col min="3851" max="3851" width="19.7265625" style="2" customWidth="1"/>
-    <col min="3852" max="3854" width="9.1796875" style="2"/>
-    <col min="3855" max="3855" width="16" style="2" customWidth="1"/>
-    <col min="3856" max="3861" width="9.1796875" style="2"/>
-    <col min="3862" max="3862" width="11" style="2" customWidth="1"/>
-    <col min="3863" max="4102" width="9.1796875" style="2"/>
-    <col min="4103" max="4103" width="10.7265625" style="2" customWidth="1"/>
-    <col min="4104" max="4106" width="9.1796875" style="2"/>
-    <col min="4107" max="4107" width="19.7265625" style="2" customWidth="1"/>
-    <col min="4108" max="4110" width="9.1796875" style="2"/>
-    <col min="4111" max="4111" width="16" style="2" customWidth="1"/>
-    <col min="4112" max="4117" width="9.1796875" style="2"/>
-    <col min="4118" max="4118" width="11" style="2" customWidth="1"/>
-    <col min="4119" max="4358" width="9.1796875" style="2"/>
-    <col min="4359" max="4359" width="10.7265625" style="2" customWidth="1"/>
-    <col min="4360" max="4362" width="9.1796875" style="2"/>
-    <col min="4363" max="4363" width="19.7265625" style="2" customWidth="1"/>
-    <col min="4364" max="4366" width="9.1796875" style="2"/>
-    <col min="4367" max="4367" width="16" style="2" customWidth="1"/>
-    <col min="4368" max="4373" width="9.1796875" style="2"/>
-    <col min="4374" max="4374" width="11" style="2" customWidth="1"/>
-    <col min="4375" max="4614" width="9.1796875" style="2"/>
-    <col min="4615" max="4615" width="10.7265625" style="2" customWidth="1"/>
-    <col min="4616" max="4618" width="9.1796875" style="2"/>
-    <col min="4619" max="4619" width="19.7265625" style="2" customWidth="1"/>
-    <col min="4620" max="4622" width="9.1796875" style="2"/>
-    <col min="4623" max="4623" width="16" style="2" customWidth="1"/>
-    <col min="4624" max="4629" width="9.1796875" style="2"/>
-    <col min="4630" max="4630" width="11" style="2" customWidth="1"/>
-    <col min="4631" max="4870" width="9.1796875" style="2"/>
-    <col min="4871" max="4871" width="10.7265625" style="2" customWidth="1"/>
-    <col min="4872" max="4874" width="9.1796875" style="2"/>
-    <col min="4875" max="4875" width="19.7265625" style="2" customWidth="1"/>
-    <col min="4876" max="4878" width="9.1796875" style="2"/>
-    <col min="4879" max="4879" width="16" style="2" customWidth="1"/>
-    <col min="4880" max="4885" width="9.1796875" style="2"/>
-    <col min="4886" max="4886" width="11" style="2" customWidth="1"/>
-    <col min="4887" max="5126" width="9.1796875" style="2"/>
-    <col min="5127" max="5127" width="10.7265625" style="2" customWidth="1"/>
-    <col min="5128" max="5130" width="9.1796875" style="2"/>
-    <col min="5131" max="5131" width="19.7265625" style="2" customWidth="1"/>
-    <col min="5132" max="5134" width="9.1796875" style="2"/>
-    <col min="5135" max="5135" width="16" style="2" customWidth="1"/>
-    <col min="5136" max="5141" width="9.1796875" style="2"/>
-    <col min="5142" max="5142" width="11" style="2" customWidth="1"/>
-    <col min="5143" max="5382" width="9.1796875" style="2"/>
-    <col min="5383" max="5383" width="10.7265625" style="2" customWidth="1"/>
-    <col min="5384" max="5386" width="9.1796875" style="2"/>
-    <col min="5387" max="5387" width="19.7265625" style="2" customWidth="1"/>
-    <col min="5388" max="5390" width="9.1796875" style="2"/>
-    <col min="5391" max="5391" width="16" style="2" customWidth="1"/>
-    <col min="5392" max="5397" width="9.1796875" style="2"/>
-    <col min="5398" max="5398" width="11" style="2" customWidth="1"/>
-    <col min="5399" max="5638" width="9.1796875" style="2"/>
-    <col min="5639" max="5639" width="10.7265625" style="2" customWidth="1"/>
-    <col min="5640" max="5642" width="9.1796875" style="2"/>
-    <col min="5643" max="5643" width="19.7265625" style="2" customWidth="1"/>
-    <col min="5644" max="5646" width="9.1796875" style="2"/>
-    <col min="5647" max="5647" width="16" style="2" customWidth="1"/>
-    <col min="5648" max="5653" width="9.1796875" style="2"/>
-    <col min="5654" max="5654" width="11" style="2" customWidth="1"/>
-    <col min="5655" max="5894" width="9.1796875" style="2"/>
-    <col min="5895" max="5895" width="10.7265625" style="2" customWidth="1"/>
-    <col min="5896" max="5898" width="9.1796875" style="2"/>
-    <col min="5899" max="5899" width="19.7265625" style="2" customWidth="1"/>
-    <col min="5900" max="5902" width="9.1796875" style="2"/>
-    <col min="5903" max="5903" width="16" style="2" customWidth="1"/>
-    <col min="5904" max="5909" width="9.1796875" style="2"/>
-    <col min="5910" max="5910" width="11" style="2" customWidth="1"/>
-    <col min="5911" max="6150" width="9.1796875" style="2"/>
-    <col min="6151" max="6151" width="10.7265625" style="2" customWidth="1"/>
-    <col min="6152" max="6154" width="9.1796875" style="2"/>
-    <col min="6155" max="6155" width="19.7265625" style="2" customWidth="1"/>
-    <col min="6156" max="6158" width="9.1796875" style="2"/>
-    <col min="6159" max="6159" width="16" style="2" customWidth="1"/>
-    <col min="6160" max="6165" width="9.1796875" style="2"/>
-    <col min="6166" max="6166" width="11" style="2" customWidth="1"/>
-    <col min="6167" max="6406" width="9.1796875" style="2"/>
-    <col min="6407" max="6407" width="10.7265625" style="2" customWidth="1"/>
-    <col min="6408" max="6410" width="9.1796875" style="2"/>
-    <col min="6411" max="6411" width="19.7265625" style="2" customWidth="1"/>
-    <col min="6412" max="6414" width="9.1796875" style="2"/>
-    <col min="6415" max="6415" width="16" style="2" customWidth="1"/>
-    <col min="6416" max="6421" width="9.1796875" style="2"/>
-    <col min="6422" max="6422" width="11" style="2" customWidth="1"/>
-    <col min="6423" max="6662" width="9.1796875" style="2"/>
-    <col min="6663" max="6663" width="10.7265625" style="2" customWidth="1"/>
-    <col min="6664" max="6666" width="9.1796875" style="2"/>
-    <col min="6667" max="6667" width="19.7265625" style="2" customWidth="1"/>
-    <col min="6668" max="6670" width="9.1796875" style="2"/>
-    <col min="6671" max="6671" width="16" style="2" customWidth="1"/>
-    <col min="6672" max="6677" width="9.1796875" style="2"/>
-    <col min="6678" max="6678" width="11" style="2" customWidth="1"/>
-    <col min="6679" max="6918" width="9.1796875" style="2"/>
-    <col min="6919" max="6919" width="10.7265625" style="2" customWidth="1"/>
-    <col min="6920" max="6922" width="9.1796875" style="2"/>
-    <col min="6923" max="6923" width="19.7265625" style="2" customWidth="1"/>
-    <col min="6924" max="6926" width="9.1796875" style="2"/>
-    <col min="6927" max="6927" width="16" style="2" customWidth="1"/>
-    <col min="6928" max="6933" width="9.1796875" style="2"/>
-    <col min="6934" max="6934" width="11" style="2" customWidth="1"/>
-    <col min="6935" max="7174" width="9.1796875" style="2"/>
-    <col min="7175" max="7175" width="10.7265625" style="2" customWidth="1"/>
-    <col min="7176" max="7178" width="9.1796875" style="2"/>
-    <col min="7179" max="7179" width="19.7265625" style="2" customWidth="1"/>
-    <col min="7180" max="7182" width="9.1796875" style="2"/>
-    <col min="7183" max="7183" width="16" style="2" customWidth="1"/>
-    <col min="7184" max="7189" width="9.1796875" style="2"/>
-    <col min="7190" max="7190" width="11" style="2" customWidth="1"/>
-    <col min="7191" max="7430" width="9.1796875" style="2"/>
-    <col min="7431" max="7431" width="10.7265625" style="2" customWidth="1"/>
-    <col min="7432" max="7434" width="9.1796875" style="2"/>
-    <col min="7435" max="7435" width="19.7265625" style="2" customWidth="1"/>
-    <col min="7436" max="7438" width="9.1796875" style="2"/>
-    <col min="7439" max="7439" width="16" style="2" customWidth="1"/>
-    <col min="7440" max="7445" width="9.1796875" style="2"/>
-    <col min="7446" max="7446" width="11" style="2" customWidth="1"/>
-    <col min="7447" max="7686" width="9.1796875" style="2"/>
-    <col min="7687" max="7687" width="10.7265625" style="2" customWidth="1"/>
-    <col min="7688" max="7690" width="9.1796875" style="2"/>
-    <col min="7691" max="7691" width="19.7265625" style="2" customWidth="1"/>
-    <col min="7692" max="7694" width="9.1796875" style="2"/>
-    <col min="7695" max="7695" width="16" style="2" customWidth="1"/>
-    <col min="7696" max="7701" width="9.1796875" style="2"/>
-    <col min="7702" max="7702" width="11" style="2" customWidth="1"/>
-    <col min="7703" max="7942" width="9.1796875" style="2"/>
-    <col min="7943" max="7943" width="10.7265625" style="2" customWidth="1"/>
-    <col min="7944" max="7946" width="9.1796875" style="2"/>
-    <col min="7947" max="7947" width="19.7265625" style="2" customWidth="1"/>
-    <col min="7948" max="7950" width="9.1796875" style="2"/>
-    <col min="7951" max="7951" width="16" style="2" customWidth="1"/>
-    <col min="7952" max="7957" width="9.1796875" style="2"/>
-    <col min="7958" max="7958" width="11" style="2" customWidth="1"/>
-    <col min="7959" max="8198" width="9.1796875" style="2"/>
-    <col min="8199" max="8199" width="10.7265625" style="2" customWidth="1"/>
-    <col min="8200" max="8202" width="9.1796875" style="2"/>
-    <col min="8203" max="8203" width="19.7265625" style="2" customWidth="1"/>
-    <col min="8204" max="8206" width="9.1796875" style="2"/>
-    <col min="8207" max="8207" width="16" style="2" customWidth="1"/>
-    <col min="8208" max="8213" width="9.1796875" style="2"/>
-    <col min="8214" max="8214" width="11" style="2" customWidth="1"/>
-    <col min="8215" max="8454" width="9.1796875" style="2"/>
-    <col min="8455" max="8455" width="10.7265625" style="2" customWidth="1"/>
-    <col min="8456" max="8458" width="9.1796875" style="2"/>
-    <col min="8459" max="8459" width="19.7265625" style="2" customWidth="1"/>
-    <col min="8460" max="8462" width="9.1796875" style="2"/>
-    <col min="8463" max="8463" width="16" style="2" customWidth="1"/>
-    <col min="8464" max="8469" width="9.1796875" style="2"/>
-    <col min="8470" max="8470" width="11" style="2" customWidth="1"/>
-    <col min="8471" max="8710" width="9.1796875" style="2"/>
-    <col min="8711" max="8711" width="10.7265625" style="2" customWidth="1"/>
-    <col min="8712" max="8714" width="9.1796875" style="2"/>
-    <col min="8715" max="8715" width="19.7265625" style="2" customWidth="1"/>
-    <col min="8716" max="8718" width="9.1796875" style="2"/>
-    <col min="8719" max="8719" width="16" style="2" customWidth="1"/>
-    <col min="8720" max="8725" width="9.1796875" style="2"/>
-    <col min="8726" max="8726" width="11" style="2" customWidth="1"/>
-    <col min="8727" max="8966" width="9.1796875" style="2"/>
-    <col min="8967" max="8967" width="10.7265625" style="2" customWidth="1"/>
-    <col min="8968" max="8970" width="9.1796875" style="2"/>
-    <col min="8971" max="8971" width="19.7265625" style="2" customWidth="1"/>
-    <col min="8972" max="8974" width="9.1796875" style="2"/>
-    <col min="8975" max="8975" width="16" style="2" customWidth="1"/>
-    <col min="8976" max="8981" width="9.1796875" style="2"/>
-    <col min="8982" max="8982" width="11" style="2" customWidth="1"/>
-    <col min="8983" max="9222" width="9.1796875" style="2"/>
-    <col min="9223" max="9223" width="10.7265625" style="2" customWidth="1"/>
-    <col min="9224" max="9226" width="9.1796875" style="2"/>
-    <col min="9227" max="9227" width="19.7265625" style="2" customWidth="1"/>
-    <col min="9228" max="9230" width="9.1796875" style="2"/>
-    <col min="9231" max="9231" width="16" style="2" customWidth="1"/>
-    <col min="9232" max="9237" width="9.1796875" style="2"/>
-    <col min="9238" max="9238" width="11" style="2" customWidth="1"/>
-    <col min="9239" max="9478" width="9.1796875" style="2"/>
-    <col min="9479" max="9479" width="10.7265625" style="2" customWidth="1"/>
-    <col min="9480" max="9482" width="9.1796875" style="2"/>
-    <col min="9483" max="9483" width="19.7265625" style="2" customWidth="1"/>
-    <col min="9484" max="9486" width="9.1796875" style="2"/>
-    <col min="9487" max="9487" width="16" style="2" customWidth="1"/>
-    <col min="9488" max="9493" width="9.1796875" style="2"/>
-    <col min="9494" max="9494" width="11" style="2" customWidth="1"/>
-    <col min="9495" max="9734" width="9.1796875" style="2"/>
-    <col min="9735" max="9735" width="10.7265625" style="2" customWidth="1"/>
-    <col min="9736" max="9738" width="9.1796875" style="2"/>
-    <col min="9739" max="9739" width="19.7265625" style="2" customWidth="1"/>
-    <col min="9740" max="9742" width="9.1796875" style="2"/>
-    <col min="9743" max="9743" width="16" style="2" customWidth="1"/>
-    <col min="9744" max="9749" width="9.1796875" style="2"/>
-    <col min="9750" max="9750" width="11" style="2" customWidth="1"/>
-    <col min="9751" max="9990" width="9.1796875" style="2"/>
-    <col min="9991" max="9991" width="10.7265625" style="2" customWidth="1"/>
-    <col min="9992" max="9994" width="9.1796875" style="2"/>
-    <col min="9995" max="9995" width="19.7265625" style="2" customWidth="1"/>
-    <col min="9996" max="9998" width="9.1796875" style="2"/>
-    <col min="9999" max="9999" width="16" style="2" customWidth="1"/>
-    <col min="10000" max="10005" width="9.1796875" style="2"/>
-    <col min="10006" max="10006" width="11" style="2" customWidth="1"/>
-    <col min="10007" max="10246" width="9.1796875" style="2"/>
-    <col min="10247" max="10247" width="10.7265625" style="2" customWidth="1"/>
-    <col min="10248" max="10250" width="9.1796875" style="2"/>
-    <col min="10251" max="10251" width="19.7265625" style="2" customWidth="1"/>
-    <col min="10252" max="10254" width="9.1796875" style="2"/>
-    <col min="10255" max="10255" width="16" style="2" customWidth="1"/>
-    <col min="10256" max="10261" width="9.1796875" style="2"/>
-    <col min="10262" max="10262" width="11" style="2" customWidth="1"/>
-    <col min="10263" max="10502" width="9.1796875" style="2"/>
-    <col min="10503" max="10503" width="10.7265625" style="2" customWidth="1"/>
-    <col min="10504" max="10506" width="9.1796875" style="2"/>
-    <col min="10507" max="10507" width="19.7265625" style="2" customWidth="1"/>
-    <col min="10508" max="10510" width="9.1796875" style="2"/>
-    <col min="10511" max="10511" width="16" style="2" customWidth="1"/>
-    <col min="10512" max="10517" width="9.1796875" style="2"/>
-    <col min="10518" max="10518" width="11" style="2" customWidth="1"/>
-    <col min="10519" max="10758" width="9.1796875" style="2"/>
-    <col min="10759" max="10759" width="10.7265625" style="2" customWidth="1"/>
-    <col min="10760" max="10762" width="9.1796875" style="2"/>
-    <col min="10763" max="10763" width="19.7265625" style="2" customWidth="1"/>
-    <col min="10764" max="10766" width="9.1796875" style="2"/>
-    <col min="10767" max="10767" width="16" style="2" customWidth="1"/>
-    <col min="10768" max="10773" width="9.1796875" style="2"/>
-    <col min="10774" max="10774" width="11" style="2" customWidth="1"/>
-    <col min="10775" max="11014" width="9.1796875" style="2"/>
-    <col min="11015" max="11015" width="10.7265625" style="2" customWidth="1"/>
-    <col min="11016" max="11018" width="9.1796875" style="2"/>
-    <col min="11019" max="11019" width="19.7265625" style="2" customWidth="1"/>
-    <col min="11020" max="11022" width="9.1796875" style="2"/>
-    <col min="11023" max="11023" width="16" style="2" customWidth="1"/>
-    <col min="11024" max="11029" width="9.1796875" style="2"/>
-    <col min="11030" max="11030" width="11" style="2" customWidth="1"/>
-    <col min="11031" max="11270" width="9.1796875" style="2"/>
-    <col min="11271" max="11271" width="10.7265625" style="2" customWidth="1"/>
-    <col min="11272" max="11274" width="9.1796875" style="2"/>
-    <col min="11275" max="11275" width="19.7265625" style="2" customWidth="1"/>
-    <col min="11276" max="11278" width="9.1796875" style="2"/>
-    <col min="11279" max="11279" width="16" style="2" customWidth="1"/>
-    <col min="11280" max="11285" width="9.1796875" style="2"/>
-    <col min="11286" max="11286" width="11" style="2" customWidth="1"/>
-    <col min="11287" max="11526" width="9.1796875" style="2"/>
-    <col min="11527" max="11527" width="10.7265625" style="2" customWidth="1"/>
-    <col min="11528" max="11530" width="9.1796875" style="2"/>
-    <col min="11531" max="11531" width="19.7265625" style="2" customWidth="1"/>
-    <col min="11532" max="11534" width="9.1796875" style="2"/>
-    <col min="11535" max="11535" width="16" style="2" customWidth="1"/>
-    <col min="11536" max="11541" width="9.1796875" style="2"/>
-    <col min="11542" max="11542" width="11" style="2" customWidth="1"/>
-    <col min="11543" max="11782" width="9.1796875" style="2"/>
-    <col min="11783" max="11783" width="10.7265625" style="2" customWidth="1"/>
-    <col min="11784" max="11786" width="9.1796875" style="2"/>
-    <col min="11787" max="11787" width="19.7265625" style="2" customWidth="1"/>
-    <col min="11788" max="11790" width="9.1796875" style="2"/>
-    <col min="11791" max="11791" width="16" style="2" customWidth="1"/>
-    <col min="11792" max="11797" width="9.1796875" style="2"/>
-    <col min="11798" max="11798" width="11" style="2" customWidth="1"/>
-    <col min="11799" max="12038" width="9.1796875" style="2"/>
-    <col min="12039" max="12039" width="10.7265625" style="2" customWidth="1"/>
-    <col min="12040" max="12042" width="9.1796875" style="2"/>
-    <col min="12043" max="12043" width="19.7265625" style="2" customWidth="1"/>
-    <col min="12044" max="12046" width="9.1796875" style="2"/>
-    <col min="12047" max="12047" width="16" style="2" customWidth="1"/>
-    <col min="12048" max="12053" width="9.1796875" style="2"/>
-    <col min="12054" max="12054" width="11" style="2" customWidth="1"/>
-    <col min="12055" max="12294" width="9.1796875" style="2"/>
-    <col min="12295" max="12295" width="10.7265625" style="2" customWidth="1"/>
-    <col min="12296" max="12298" width="9.1796875" style="2"/>
-    <col min="12299" max="12299" width="19.7265625" style="2" customWidth="1"/>
-    <col min="12300" max="12302" width="9.1796875" style="2"/>
-    <col min="12303" max="12303" width="16" style="2" customWidth="1"/>
-    <col min="12304" max="12309" width="9.1796875" style="2"/>
-    <col min="12310" max="12310" width="11" style="2" customWidth="1"/>
-    <col min="12311" max="12550" width="9.1796875" style="2"/>
-    <col min="12551" max="12551" width="10.7265625" style="2" customWidth="1"/>
-    <col min="12552" max="12554" width="9.1796875" style="2"/>
-    <col min="12555" max="12555" width="19.7265625" style="2" customWidth="1"/>
-    <col min="12556" max="12558" width="9.1796875" style="2"/>
-    <col min="12559" max="12559" width="16" style="2" customWidth="1"/>
-    <col min="12560" max="12565" width="9.1796875" style="2"/>
-    <col min="12566" max="12566" width="11" style="2" customWidth="1"/>
-    <col min="12567" max="12806" width="9.1796875" style="2"/>
-    <col min="12807" max="12807" width="10.7265625" style="2" customWidth="1"/>
-    <col min="12808" max="12810" width="9.1796875" style="2"/>
-    <col min="12811" max="12811" width="19.7265625" style="2" customWidth="1"/>
-    <col min="12812" max="12814" width="9.1796875" style="2"/>
-    <col min="12815" max="12815" width="16" style="2" customWidth="1"/>
-    <col min="12816" max="12821" width="9.1796875" style="2"/>
-    <col min="12822" max="12822" width="11" style="2" customWidth="1"/>
-    <col min="12823" max="13062" width="9.1796875" style="2"/>
-    <col min="13063" max="13063" width="10.7265625" style="2" customWidth="1"/>
-    <col min="13064" max="13066" width="9.1796875" style="2"/>
-    <col min="13067" max="13067" width="19.7265625" style="2" customWidth="1"/>
-    <col min="13068" max="13070" width="9.1796875" style="2"/>
-    <col min="13071" max="13071" width="16" style="2" customWidth="1"/>
-    <col min="13072" max="13077" width="9.1796875" style="2"/>
-    <col min="13078" max="13078" width="11" style="2" customWidth="1"/>
-    <col min="13079" max="13318" width="9.1796875" style="2"/>
-    <col min="13319" max="13319" width="10.7265625" style="2" customWidth="1"/>
-    <col min="13320" max="13322" width="9.1796875" style="2"/>
-    <col min="13323" max="13323" width="19.7265625" style="2" customWidth="1"/>
-    <col min="13324" max="13326" width="9.1796875" style="2"/>
-    <col min="13327" max="13327" width="16" style="2" customWidth="1"/>
-    <col min="13328" max="13333" width="9.1796875" style="2"/>
-    <col min="13334" max="13334" width="11" style="2" customWidth="1"/>
-    <col min="13335" max="13574" width="9.1796875" style="2"/>
-    <col min="13575" max="13575" width="10.7265625" style="2" customWidth="1"/>
-    <col min="13576" max="13578" width="9.1796875" style="2"/>
-    <col min="13579" max="13579" width="19.7265625" style="2" customWidth="1"/>
-    <col min="13580" max="13582" width="9.1796875" style="2"/>
-    <col min="13583" max="13583" width="16" style="2" customWidth="1"/>
-    <col min="13584" max="13589" width="9.1796875" style="2"/>
-    <col min="13590" max="13590" width="11" style="2" customWidth="1"/>
-    <col min="13591" max="13830" width="9.1796875" style="2"/>
-    <col min="13831" max="13831" width="10.7265625" style="2" customWidth="1"/>
-    <col min="13832" max="13834" width="9.1796875" style="2"/>
-    <col min="13835" max="13835" width="19.7265625" style="2" customWidth="1"/>
-    <col min="13836" max="13838" width="9.1796875" style="2"/>
-    <col min="13839" max="13839" width="16" style="2" customWidth="1"/>
-    <col min="13840" max="13845" width="9.1796875" style="2"/>
-    <col min="13846" max="13846" width="11" style="2" customWidth="1"/>
-    <col min="13847" max="14086" width="9.1796875" style="2"/>
-    <col min="14087" max="14087" width="10.7265625" style="2" customWidth="1"/>
-    <col min="14088" max="14090" width="9.1796875" style="2"/>
-    <col min="14091" max="14091" width="19.7265625" style="2" customWidth="1"/>
-    <col min="14092" max="14094" width="9.1796875" style="2"/>
-    <col min="14095" max="14095" width="16" style="2" customWidth="1"/>
-    <col min="14096" max="14101" width="9.1796875" style="2"/>
-    <col min="14102" max="14102" width="11" style="2" customWidth="1"/>
-    <col min="14103" max="14342" width="9.1796875" style="2"/>
-    <col min="14343" max="14343" width="10.7265625" style="2" customWidth="1"/>
-    <col min="14344" max="14346" width="9.1796875" style="2"/>
-    <col min="14347" max="14347" width="19.7265625" style="2" customWidth="1"/>
-    <col min="14348" max="14350" width="9.1796875" style="2"/>
-    <col min="14351" max="14351" width="16" style="2" customWidth="1"/>
-    <col min="14352" max="14357" width="9.1796875" style="2"/>
-    <col min="14358" max="14358" width="11" style="2" customWidth="1"/>
-    <col min="14359" max="14598" width="9.1796875" style="2"/>
-    <col min="14599" max="14599" width="10.7265625" style="2" customWidth="1"/>
-    <col min="14600" max="14602" width="9.1796875" style="2"/>
-    <col min="14603" max="14603" width="19.7265625" style="2" customWidth="1"/>
-    <col min="14604" max="14606" width="9.1796875" style="2"/>
-    <col min="14607" max="14607" width="16" style="2" customWidth="1"/>
-    <col min="14608" max="14613" width="9.1796875" style="2"/>
-    <col min="14614" max="14614" width="11" style="2" customWidth="1"/>
-    <col min="14615" max="14854" width="9.1796875" style="2"/>
-    <col min="14855" max="14855" width="10.7265625" style="2" customWidth="1"/>
-    <col min="14856" max="14858" width="9.1796875" style="2"/>
-    <col min="14859" max="14859" width="19.7265625" style="2" customWidth="1"/>
-    <col min="14860" max="14862" width="9.1796875" style="2"/>
-    <col min="14863" max="14863" width="16" style="2" customWidth="1"/>
-    <col min="14864" max="14869" width="9.1796875" style="2"/>
-    <col min="14870" max="14870" width="11" style="2" customWidth="1"/>
-    <col min="14871" max="15110" width="9.1796875" style="2"/>
-    <col min="15111" max="15111" width="10.7265625" style="2" customWidth="1"/>
-    <col min="15112" max="15114" width="9.1796875" style="2"/>
-    <col min="15115" max="15115" width="19.7265625" style="2" customWidth="1"/>
-    <col min="15116" max="15118" width="9.1796875" style="2"/>
-    <col min="15119" max="15119" width="16" style="2" customWidth="1"/>
-    <col min="15120" max="15125" width="9.1796875" style="2"/>
-    <col min="15126" max="15126" width="11" style="2" customWidth="1"/>
-    <col min="15127" max="15366" width="9.1796875" style="2"/>
-    <col min="15367" max="15367" width="10.7265625" style="2" customWidth="1"/>
-    <col min="15368" max="15370" width="9.1796875" style="2"/>
-    <col min="15371" max="15371" width="19.7265625" style="2" customWidth="1"/>
-    <col min="15372" max="15374" width="9.1796875" style="2"/>
-    <col min="15375" max="15375" width="16" style="2" customWidth="1"/>
-    <col min="15376" max="15381" width="9.1796875" style="2"/>
-    <col min="15382" max="15382" width="11" style="2" customWidth="1"/>
-    <col min="15383" max="15622" width="9.1796875" style="2"/>
-    <col min="15623" max="15623" width="10.7265625" style="2" customWidth="1"/>
-    <col min="15624" max="15626" width="9.1796875" style="2"/>
-    <col min="15627" max="15627" width="19.7265625" style="2" customWidth="1"/>
-    <col min="15628" max="15630" width="9.1796875" style="2"/>
-    <col min="15631" max="15631" width="16" style="2" customWidth="1"/>
-    <col min="15632" max="15637" width="9.1796875" style="2"/>
-    <col min="15638" max="15638" width="11" style="2" customWidth="1"/>
-    <col min="15639" max="15878" width="9.1796875" style="2"/>
-    <col min="15879" max="15879" width="10.7265625" style="2" customWidth="1"/>
-    <col min="15880" max="15882" width="9.1796875" style="2"/>
-    <col min="15883" max="15883" width="19.7265625" style="2" customWidth="1"/>
-    <col min="15884" max="15886" width="9.1796875" style="2"/>
-    <col min="15887" max="15887" width="16" style="2" customWidth="1"/>
-    <col min="15888" max="15893" width="9.1796875" style="2"/>
-    <col min="15894" max="15894" width="11" style="2" customWidth="1"/>
-    <col min="15895" max="16134" width="9.1796875" style="2"/>
-    <col min="16135" max="16135" width="10.7265625" style="2" customWidth="1"/>
-    <col min="16136" max="16138" width="9.1796875" style="2"/>
-    <col min="16139" max="16139" width="19.7265625" style="2" customWidth="1"/>
-    <col min="16140" max="16142" width="9.1796875" style="2"/>
-    <col min="16143" max="16143" width="16" style="2" customWidth="1"/>
-    <col min="16144" max="16149" width="9.1796875" style="2"/>
-    <col min="16150" max="16150" width="11" style="2" customWidth="1"/>
-    <col min="16151" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="25" width="10.5703125" style="2" customWidth="1"/>
+    <col min="26" max="263" width="9.140625" style="2"/>
+    <col min="264" max="264" width="10.7109375" style="2" customWidth="1"/>
+    <col min="265" max="267" width="9.140625" style="2"/>
+    <col min="268" max="268" width="19.7109375" style="2" customWidth="1"/>
+    <col min="269" max="271" width="9.140625" style="2"/>
+    <col min="272" max="272" width="16" style="2" customWidth="1"/>
+    <col min="273" max="278" width="9.140625" style="2"/>
+    <col min="279" max="279" width="11" style="2" customWidth="1"/>
+    <col min="280" max="519" width="9.140625" style="2"/>
+    <col min="520" max="520" width="10.7109375" style="2" customWidth="1"/>
+    <col min="521" max="523" width="9.140625" style="2"/>
+    <col min="524" max="524" width="19.7109375" style="2" customWidth="1"/>
+    <col min="525" max="527" width="9.140625" style="2"/>
+    <col min="528" max="528" width="16" style="2" customWidth="1"/>
+    <col min="529" max="534" width="9.140625" style="2"/>
+    <col min="535" max="535" width="11" style="2" customWidth="1"/>
+    <col min="536" max="775" width="9.140625" style="2"/>
+    <col min="776" max="776" width="10.7109375" style="2" customWidth="1"/>
+    <col min="777" max="779" width="9.140625" style="2"/>
+    <col min="780" max="780" width="19.7109375" style="2" customWidth="1"/>
+    <col min="781" max="783" width="9.140625" style="2"/>
+    <col min="784" max="784" width="16" style="2" customWidth="1"/>
+    <col min="785" max="790" width="9.140625" style="2"/>
+    <col min="791" max="791" width="11" style="2" customWidth="1"/>
+    <col min="792" max="1031" width="9.140625" style="2"/>
+    <col min="1032" max="1032" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1033" max="1035" width="9.140625" style="2"/>
+    <col min="1036" max="1036" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1037" max="1039" width="9.140625" style="2"/>
+    <col min="1040" max="1040" width="16" style="2" customWidth="1"/>
+    <col min="1041" max="1046" width="9.140625" style="2"/>
+    <col min="1047" max="1047" width="11" style="2" customWidth="1"/>
+    <col min="1048" max="1287" width="9.140625" style="2"/>
+    <col min="1288" max="1288" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1289" max="1291" width="9.140625" style="2"/>
+    <col min="1292" max="1292" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1293" max="1295" width="9.140625" style="2"/>
+    <col min="1296" max="1296" width="16" style="2" customWidth="1"/>
+    <col min="1297" max="1302" width="9.140625" style="2"/>
+    <col min="1303" max="1303" width="11" style="2" customWidth="1"/>
+    <col min="1304" max="1543" width="9.140625" style="2"/>
+    <col min="1544" max="1544" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1545" max="1547" width="9.140625" style="2"/>
+    <col min="1548" max="1548" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1549" max="1551" width="9.140625" style="2"/>
+    <col min="1552" max="1552" width="16" style="2" customWidth="1"/>
+    <col min="1553" max="1558" width="9.140625" style="2"/>
+    <col min="1559" max="1559" width="11" style="2" customWidth="1"/>
+    <col min="1560" max="1799" width="9.140625" style="2"/>
+    <col min="1800" max="1800" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1801" max="1803" width="9.140625" style="2"/>
+    <col min="1804" max="1804" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1805" max="1807" width="9.140625" style="2"/>
+    <col min="1808" max="1808" width="16" style="2" customWidth="1"/>
+    <col min="1809" max="1814" width="9.140625" style="2"/>
+    <col min="1815" max="1815" width="11" style="2" customWidth="1"/>
+    <col min="1816" max="2055" width="9.140625" style="2"/>
+    <col min="2056" max="2056" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2057" max="2059" width="9.140625" style="2"/>
+    <col min="2060" max="2060" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2061" max="2063" width="9.140625" style="2"/>
+    <col min="2064" max="2064" width="16" style="2" customWidth="1"/>
+    <col min="2065" max="2070" width="9.140625" style="2"/>
+    <col min="2071" max="2071" width="11" style="2" customWidth="1"/>
+    <col min="2072" max="2311" width="9.140625" style="2"/>
+    <col min="2312" max="2312" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2313" max="2315" width="9.140625" style="2"/>
+    <col min="2316" max="2316" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2317" max="2319" width="9.140625" style="2"/>
+    <col min="2320" max="2320" width="16" style="2" customWidth="1"/>
+    <col min="2321" max="2326" width="9.140625" style="2"/>
+    <col min="2327" max="2327" width="11" style="2" customWidth="1"/>
+    <col min="2328" max="2567" width="9.140625" style="2"/>
+    <col min="2568" max="2568" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2569" max="2571" width="9.140625" style="2"/>
+    <col min="2572" max="2572" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2573" max="2575" width="9.140625" style="2"/>
+    <col min="2576" max="2576" width="16" style="2" customWidth="1"/>
+    <col min="2577" max="2582" width="9.140625" style="2"/>
+    <col min="2583" max="2583" width="11" style="2" customWidth="1"/>
+    <col min="2584" max="2823" width="9.140625" style="2"/>
+    <col min="2824" max="2824" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2825" max="2827" width="9.140625" style="2"/>
+    <col min="2828" max="2828" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2829" max="2831" width="9.140625" style="2"/>
+    <col min="2832" max="2832" width="16" style="2" customWidth="1"/>
+    <col min="2833" max="2838" width="9.140625" style="2"/>
+    <col min="2839" max="2839" width="11" style="2" customWidth="1"/>
+    <col min="2840" max="3079" width="9.140625" style="2"/>
+    <col min="3080" max="3080" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3081" max="3083" width="9.140625" style="2"/>
+    <col min="3084" max="3084" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3085" max="3087" width="9.140625" style="2"/>
+    <col min="3088" max="3088" width="16" style="2" customWidth="1"/>
+    <col min="3089" max="3094" width="9.140625" style="2"/>
+    <col min="3095" max="3095" width="11" style="2" customWidth="1"/>
+    <col min="3096" max="3335" width="9.140625" style="2"/>
+    <col min="3336" max="3336" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3337" max="3339" width="9.140625" style="2"/>
+    <col min="3340" max="3340" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3341" max="3343" width="9.140625" style="2"/>
+    <col min="3344" max="3344" width="16" style="2" customWidth="1"/>
+    <col min="3345" max="3350" width="9.140625" style="2"/>
+    <col min="3351" max="3351" width="11" style="2" customWidth="1"/>
+    <col min="3352" max="3591" width="9.140625" style="2"/>
+    <col min="3592" max="3592" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3593" max="3595" width="9.140625" style="2"/>
+    <col min="3596" max="3596" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3597" max="3599" width="9.140625" style="2"/>
+    <col min="3600" max="3600" width="16" style="2" customWidth="1"/>
+    <col min="3601" max="3606" width="9.140625" style="2"/>
+    <col min="3607" max="3607" width="11" style="2" customWidth="1"/>
+    <col min="3608" max="3847" width="9.140625" style="2"/>
+    <col min="3848" max="3848" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3849" max="3851" width="9.140625" style="2"/>
+    <col min="3852" max="3852" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3853" max="3855" width="9.140625" style="2"/>
+    <col min="3856" max="3856" width="16" style="2" customWidth="1"/>
+    <col min="3857" max="3862" width="9.140625" style="2"/>
+    <col min="3863" max="3863" width="11" style="2" customWidth="1"/>
+    <col min="3864" max="4103" width="9.140625" style="2"/>
+    <col min="4104" max="4104" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4105" max="4107" width="9.140625" style="2"/>
+    <col min="4108" max="4108" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4109" max="4111" width="9.140625" style="2"/>
+    <col min="4112" max="4112" width="16" style="2" customWidth="1"/>
+    <col min="4113" max="4118" width="9.140625" style="2"/>
+    <col min="4119" max="4119" width="11" style="2" customWidth="1"/>
+    <col min="4120" max="4359" width="9.140625" style="2"/>
+    <col min="4360" max="4360" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4361" max="4363" width="9.140625" style="2"/>
+    <col min="4364" max="4364" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4365" max="4367" width="9.140625" style="2"/>
+    <col min="4368" max="4368" width="16" style="2" customWidth="1"/>
+    <col min="4369" max="4374" width="9.140625" style="2"/>
+    <col min="4375" max="4375" width="11" style="2" customWidth="1"/>
+    <col min="4376" max="4615" width="9.140625" style="2"/>
+    <col min="4616" max="4616" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4617" max="4619" width="9.140625" style="2"/>
+    <col min="4620" max="4620" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4621" max="4623" width="9.140625" style="2"/>
+    <col min="4624" max="4624" width="16" style="2" customWidth="1"/>
+    <col min="4625" max="4630" width="9.140625" style="2"/>
+    <col min="4631" max="4631" width="11" style="2" customWidth="1"/>
+    <col min="4632" max="4871" width="9.140625" style="2"/>
+    <col min="4872" max="4872" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4873" max="4875" width="9.140625" style="2"/>
+    <col min="4876" max="4876" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4877" max="4879" width="9.140625" style="2"/>
+    <col min="4880" max="4880" width="16" style="2" customWidth="1"/>
+    <col min="4881" max="4886" width="9.140625" style="2"/>
+    <col min="4887" max="4887" width="11" style="2" customWidth="1"/>
+    <col min="4888" max="5127" width="9.140625" style="2"/>
+    <col min="5128" max="5128" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5129" max="5131" width="9.140625" style="2"/>
+    <col min="5132" max="5132" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5133" max="5135" width="9.140625" style="2"/>
+    <col min="5136" max="5136" width="16" style="2" customWidth="1"/>
+    <col min="5137" max="5142" width="9.140625" style="2"/>
+    <col min="5143" max="5143" width="11" style="2" customWidth="1"/>
+    <col min="5144" max="5383" width="9.140625" style="2"/>
+    <col min="5384" max="5384" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5385" max="5387" width="9.140625" style="2"/>
+    <col min="5388" max="5388" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5389" max="5391" width="9.140625" style="2"/>
+    <col min="5392" max="5392" width="16" style="2" customWidth="1"/>
+    <col min="5393" max="5398" width="9.140625" style="2"/>
+    <col min="5399" max="5399" width="11" style="2" customWidth="1"/>
+    <col min="5400" max="5639" width="9.140625" style="2"/>
+    <col min="5640" max="5640" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5641" max="5643" width="9.140625" style="2"/>
+    <col min="5644" max="5644" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5645" max="5647" width="9.140625" style="2"/>
+    <col min="5648" max="5648" width="16" style="2" customWidth="1"/>
+    <col min="5649" max="5654" width="9.140625" style="2"/>
+    <col min="5655" max="5655" width="11" style="2" customWidth="1"/>
+    <col min="5656" max="5895" width="9.140625" style="2"/>
+    <col min="5896" max="5896" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5897" max="5899" width="9.140625" style="2"/>
+    <col min="5900" max="5900" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5901" max="5903" width="9.140625" style="2"/>
+    <col min="5904" max="5904" width="16" style="2" customWidth="1"/>
+    <col min="5905" max="5910" width="9.140625" style="2"/>
+    <col min="5911" max="5911" width="11" style="2" customWidth="1"/>
+    <col min="5912" max="6151" width="9.140625" style="2"/>
+    <col min="6152" max="6152" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6153" max="6155" width="9.140625" style="2"/>
+    <col min="6156" max="6156" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6157" max="6159" width="9.140625" style="2"/>
+    <col min="6160" max="6160" width="16" style="2" customWidth="1"/>
+    <col min="6161" max="6166" width="9.140625" style="2"/>
+    <col min="6167" max="6167" width="11" style="2" customWidth="1"/>
+    <col min="6168" max="6407" width="9.140625" style="2"/>
+    <col min="6408" max="6408" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6409" max="6411" width="9.140625" style="2"/>
+    <col min="6412" max="6412" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6413" max="6415" width="9.140625" style="2"/>
+    <col min="6416" max="6416" width="16" style="2" customWidth="1"/>
+    <col min="6417" max="6422" width="9.140625" style="2"/>
+    <col min="6423" max="6423" width="11" style="2" customWidth="1"/>
+    <col min="6424" max="6663" width="9.140625" style="2"/>
+    <col min="6664" max="6664" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6665" max="6667" width="9.140625" style="2"/>
+    <col min="6668" max="6668" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6669" max="6671" width="9.140625" style="2"/>
+    <col min="6672" max="6672" width="16" style="2" customWidth="1"/>
+    <col min="6673" max="6678" width="9.140625" style="2"/>
+    <col min="6679" max="6679" width="11" style="2" customWidth="1"/>
+    <col min="6680" max="6919" width="9.140625" style="2"/>
+    <col min="6920" max="6920" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6921" max="6923" width="9.140625" style="2"/>
+    <col min="6924" max="6924" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6925" max="6927" width="9.140625" style="2"/>
+    <col min="6928" max="6928" width="16" style="2" customWidth="1"/>
+    <col min="6929" max="6934" width="9.140625" style="2"/>
+    <col min="6935" max="6935" width="11" style="2" customWidth="1"/>
+    <col min="6936" max="7175" width="9.140625" style="2"/>
+    <col min="7176" max="7176" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7177" max="7179" width="9.140625" style="2"/>
+    <col min="7180" max="7180" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7181" max="7183" width="9.140625" style="2"/>
+    <col min="7184" max="7184" width="16" style="2" customWidth="1"/>
+    <col min="7185" max="7190" width="9.140625" style="2"/>
+    <col min="7191" max="7191" width="11" style="2" customWidth="1"/>
+    <col min="7192" max="7431" width="9.140625" style="2"/>
+    <col min="7432" max="7432" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7433" max="7435" width="9.140625" style="2"/>
+    <col min="7436" max="7436" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7437" max="7439" width="9.140625" style="2"/>
+    <col min="7440" max="7440" width="16" style="2" customWidth="1"/>
+    <col min="7441" max="7446" width="9.140625" style="2"/>
+    <col min="7447" max="7447" width="11" style="2" customWidth="1"/>
+    <col min="7448" max="7687" width="9.140625" style="2"/>
+    <col min="7688" max="7688" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7689" max="7691" width="9.140625" style="2"/>
+    <col min="7692" max="7692" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7693" max="7695" width="9.140625" style="2"/>
+    <col min="7696" max="7696" width="16" style="2" customWidth="1"/>
+    <col min="7697" max="7702" width="9.140625" style="2"/>
+    <col min="7703" max="7703" width="11" style="2" customWidth="1"/>
+    <col min="7704" max="7943" width="9.140625" style="2"/>
+    <col min="7944" max="7944" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7945" max="7947" width="9.140625" style="2"/>
+    <col min="7948" max="7948" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7949" max="7951" width="9.140625" style="2"/>
+    <col min="7952" max="7952" width="16" style="2" customWidth="1"/>
+    <col min="7953" max="7958" width="9.140625" style="2"/>
+    <col min="7959" max="7959" width="11" style="2" customWidth="1"/>
+    <col min="7960" max="8199" width="9.140625" style="2"/>
+    <col min="8200" max="8200" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8201" max="8203" width="9.140625" style="2"/>
+    <col min="8204" max="8204" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8205" max="8207" width="9.140625" style="2"/>
+    <col min="8208" max="8208" width="16" style="2" customWidth="1"/>
+    <col min="8209" max="8214" width="9.140625" style="2"/>
+    <col min="8215" max="8215" width="11" style="2" customWidth="1"/>
+    <col min="8216" max="8455" width="9.140625" style="2"/>
+    <col min="8456" max="8456" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8457" max="8459" width="9.140625" style="2"/>
+    <col min="8460" max="8460" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8461" max="8463" width="9.140625" style="2"/>
+    <col min="8464" max="8464" width="16" style="2" customWidth="1"/>
+    <col min="8465" max="8470" width="9.140625" style="2"/>
+    <col min="8471" max="8471" width="11" style="2" customWidth="1"/>
+    <col min="8472" max="8711" width="9.140625" style="2"/>
+    <col min="8712" max="8712" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8713" max="8715" width="9.140625" style="2"/>
+    <col min="8716" max="8716" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8717" max="8719" width="9.140625" style="2"/>
+    <col min="8720" max="8720" width="16" style="2" customWidth="1"/>
+    <col min="8721" max="8726" width="9.140625" style="2"/>
+    <col min="8727" max="8727" width="11" style="2" customWidth="1"/>
+    <col min="8728" max="8967" width="9.140625" style="2"/>
+    <col min="8968" max="8968" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8969" max="8971" width="9.140625" style="2"/>
+    <col min="8972" max="8972" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8973" max="8975" width="9.140625" style="2"/>
+    <col min="8976" max="8976" width="16" style="2" customWidth="1"/>
+    <col min="8977" max="8982" width="9.140625" style="2"/>
+    <col min="8983" max="8983" width="11" style="2" customWidth="1"/>
+    <col min="8984" max="9223" width="9.140625" style="2"/>
+    <col min="9224" max="9224" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9225" max="9227" width="9.140625" style="2"/>
+    <col min="9228" max="9228" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9229" max="9231" width="9.140625" style="2"/>
+    <col min="9232" max="9232" width="16" style="2" customWidth="1"/>
+    <col min="9233" max="9238" width="9.140625" style="2"/>
+    <col min="9239" max="9239" width="11" style="2" customWidth="1"/>
+    <col min="9240" max="9479" width="9.140625" style="2"/>
+    <col min="9480" max="9480" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9481" max="9483" width="9.140625" style="2"/>
+    <col min="9484" max="9484" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9485" max="9487" width="9.140625" style="2"/>
+    <col min="9488" max="9488" width="16" style="2" customWidth="1"/>
+    <col min="9489" max="9494" width="9.140625" style="2"/>
+    <col min="9495" max="9495" width="11" style="2" customWidth="1"/>
+    <col min="9496" max="9735" width="9.140625" style="2"/>
+    <col min="9736" max="9736" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9737" max="9739" width="9.140625" style="2"/>
+    <col min="9740" max="9740" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9741" max="9743" width="9.140625" style="2"/>
+    <col min="9744" max="9744" width="16" style="2" customWidth="1"/>
+    <col min="9745" max="9750" width="9.140625" style="2"/>
+    <col min="9751" max="9751" width="11" style="2" customWidth="1"/>
+    <col min="9752" max="9991" width="9.140625" style="2"/>
+    <col min="9992" max="9992" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9993" max="9995" width="9.140625" style="2"/>
+    <col min="9996" max="9996" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9997" max="9999" width="9.140625" style="2"/>
+    <col min="10000" max="10000" width="16" style="2" customWidth="1"/>
+    <col min="10001" max="10006" width="9.140625" style="2"/>
+    <col min="10007" max="10007" width="11" style="2" customWidth="1"/>
+    <col min="10008" max="10247" width="9.140625" style="2"/>
+    <col min="10248" max="10248" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10249" max="10251" width="9.140625" style="2"/>
+    <col min="10252" max="10252" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10253" max="10255" width="9.140625" style="2"/>
+    <col min="10256" max="10256" width="16" style="2" customWidth="1"/>
+    <col min="10257" max="10262" width="9.140625" style="2"/>
+    <col min="10263" max="10263" width="11" style="2" customWidth="1"/>
+    <col min="10264" max="10503" width="9.140625" style="2"/>
+    <col min="10504" max="10504" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10505" max="10507" width="9.140625" style="2"/>
+    <col min="10508" max="10508" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10509" max="10511" width="9.140625" style="2"/>
+    <col min="10512" max="10512" width="16" style="2" customWidth="1"/>
+    <col min="10513" max="10518" width="9.140625" style="2"/>
+    <col min="10519" max="10519" width="11" style="2" customWidth="1"/>
+    <col min="10520" max="10759" width="9.140625" style="2"/>
+    <col min="10760" max="10760" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10761" max="10763" width="9.140625" style="2"/>
+    <col min="10764" max="10764" width="19.7109375" style="2" customWidth="1"/>
+    <col min="10765" max="10767" width="9.140625" style="2"/>
+    <col min="10768" max="10768" width="16" style="2" customWidth="1"/>
+    <col min="10769" max="10774" width="9.140625" style="2"/>
+    <col min="10775" max="10775" width="11" style="2" customWidth="1"/>
+    <col min="10776" max="11015" width="9.140625" style="2"/>
+    <col min="11016" max="11016" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11017" max="11019" width="9.140625" style="2"/>
+    <col min="11020" max="11020" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11021" max="11023" width="9.140625" style="2"/>
+    <col min="11024" max="11024" width="16" style="2" customWidth="1"/>
+    <col min="11025" max="11030" width="9.140625" style="2"/>
+    <col min="11031" max="11031" width="11" style="2" customWidth="1"/>
+    <col min="11032" max="11271" width="9.140625" style="2"/>
+    <col min="11272" max="11272" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11273" max="11275" width="9.140625" style="2"/>
+    <col min="11276" max="11276" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11277" max="11279" width="9.140625" style="2"/>
+    <col min="11280" max="11280" width="16" style="2" customWidth="1"/>
+    <col min="11281" max="11286" width="9.140625" style="2"/>
+    <col min="11287" max="11287" width="11" style="2" customWidth="1"/>
+    <col min="11288" max="11527" width="9.140625" style="2"/>
+    <col min="11528" max="11528" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11529" max="11531" width="9.140625" style="2"/>
+    <col min="11532" max="11532" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11533" max="11535" width="9.140625" style="2"/>
+    <col min="11536" max="11536" width="16" style="2" customWidth="1"/>
+    <col min="11537" max="11542" width="9.140625" style="2"/>
+    <col min="11543" max="11543" width="11" style="2" customWidth="1"/>
+    <col min="11544" max="11783" width="9.140625" style="2"/>
+    <col min="11784" max="11784" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11785" max="11787" width="9.140625" style="2"/>
+    <col min="11788" max="11788" width="19.7109375" style="2" customWidth="1"/>
+    <col min="11789" max="11791" width="9.140625" style="2"/>
+    <col min="11792" max="11792" width="16" style="2" customWidth="1"/>
+    <col min="11793" max="11798" width="9.140625" style="2"/>
+    <col min="11799" max="11799" width="11" style="2" customWidth="1"/>
+    <col min="11800" max="12039" width="9.140625" style="2"/>
+    <col min="12040" max="12040" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12041" max="12043" width="9.140625" style="2"/>
+    <col min="12044" max="12044" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12045" max="12047" width="9.140625" style="2"/>
+    <col min="12048" max="12048" width="16" style="2" customWidth="1"/>
+    <col min="12049" max="12054" width="9.140625" style="2"/>
+    <col min="12055" max="12055" width="11" style="2" customWidth="1"/>
+    <col min="12056" max="12295" width="9.140625" style="2"/>
+    <col min="12296" max="12296" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12297" max="12299" width="9.140625" style="2"/>
+    <col min="12300" max="12300" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12301" max="12303" width="9.140625" style="2"/>
+    <col min="12304" max="12304" width="16" style="2" customWidth="1"/>
+    <col min="12305" max="12310" width="9.140625" style="2"/>
+    <col min="12311" max="12311" width="11" style="2" customWidth="1"/>
+    <col min="12312" max="12551" width="9.140625" style="2"/>
+    <col min="12552" max="12552" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12553" max="12555" width="9.140625" style="2"/>
+    <col min="12556" max="12556" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12557" max="12559" width="9.140625" style="2"/>
+    <col min="12560" max="12560" width="16" style="2" customWidth="1"/>
+    <col min="12561" max="12566" width="9.140625" style="2"/>
+    <col min="12567" max="12567" width="11" style="2" customWidth="1"/>
+    <col min="12568" max="12807" width="9.140625" style="2"/>
+    <col min="12808" max="12808" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12809" max="12811" width="9.140625" style="2"/>
+    <col min="12812" max="12812" width="19.7109375" style="2" customWidth="1"/>
+    <col min="12813" max="12815" width="9.140625" style="2"/>
+    <col min="12816" max="12816" width="16" style="2" customWidth="1"/>
+    <col min="12817" max="12822" width="9.140625" style="2"/>
+    <col min="12823" max="12823" width="11" style="2" customWidth="1"/>
+    <col min="12824" max="13063" width="9.140625" style="2"/>
+    <col min="13064" max="13064" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13065" max="13067" width="9.140625" style="2"/>
+    <col min="13068" max="13068" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13069" max="13071" width="9.140625" style="2"/>
+    <col min="13072" max="13072" width="16" style="2" customWidth="1"/>
+    <col min="13073" max="13078" width="9.140625" style="2"/>
+    <col min="13079" max="13079" width="11" style="2" customWidth="1"/>
+    <col min="13080" max="13319" width="9.140625" style="2"/>
+    <col min="13320" max="13320" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13321" max="13323" width="9.140625" style="2"/>
+    <col min="13324" max="13324" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13325" max="13327" width="9.140625" style="2"/>
+    <col min="13328" max="13328" width="16" style="2" customWidth="1"/>
+    <col min="13329" max="13334" width="9.140625" style="2"/>
+    <col min="13335" max="13335" width="11" style="2" customWidth="1"/>
+    <col min="13336" max="13575" width="9.140625" style="2"/>
+    <col min="13576" max="13576" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13577" max="13579" width="9.140625" style="2"/>
+    <col min="13580" max="13580" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13581" max="13583" width="9.140625" style="2"/>
+    <col min="13584" max="13584" width="16" style="2" customWidth="1"/>
+    <col min="13585" max="13590" width="9.140625" style="2"/>
+    <col min="13591" max="13591" width="11" style="2" customWidth="1"/>
+    <col min="13592" max="13831" width="9.140625" style="2"/>
+    <col min="13832" max="13832" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13833" max="13835" width="9.140625" style="2"/>
+    <col min="13836" max="13836" width="19.7109375" style="2" customWidth="1"/>
+    <col min="13837" max="13839" width="9.140625" style="2"/>
+    <col min="13840" max="13840" width="16" style="2" customWidth="1"/>
+    <col min="13841" max="13846" width="9.140625" style="2"/>
+    <col min="13847" max="13847" width="11" style="2" customWidth="1"/>
+    <col min="13848" max="14087" width="9.140625" style="2"/>
+    <col min="14088" max="14088" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14089" max="14091" width="9.140625" style="2"/>
+    <col min="14092" max="14092" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14093" max="14095" width="9.140625" style="2"/>
+    <col min="14096" max="14096" width="16" style="2" customWidth="1"/>
+    <col min="14097" max="14102" width="9.140625" style="2"/>
+    <col min="14103" max="14103" width="11" style="2" customWidth="1"/>
+    <col min="14104" max="14343" width="9.140625" style="2"/>
+    <col min="14344" max="14344" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14345" max="14347" width="9.140625" style="2"/>
+    <col min="14348" max="14348" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14349" max="14351" width="9.140625" style="2"/>
+    <col min="14352" max="14352" width="16" style="2" customWidth="1"/>
+    <col min="14353" max="14358" width="9.140625" style="2"/>
+    <col min="14359" max="14359" width="11" style="2" customWidth="1"/>
+    <col min="14360" max="14599" width="9.140625" style="2"/>
+    <col min="14600" max="14600" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14601" max="14603" width="9.140625" style="2"/>
+    <col min="14604" max="14604" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14605" max="14607" width="9.140625" style="2"/>
+    <col min="14608" max="14608" width="16" style="2" customWidth="1"/>
+    <col min="14609" max="14614" width="9.140625" style="2"/>
+    <col min="14615" max="14615" width="11" style="2" customWidth="1"/>
+    <col min="14616" max="14855" width="9.140625" style="2"/>
+    <col min="14856" max="14856" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14857" max="14859" width="9.140625" style="2"/>
+    <col min="14860" max="14860" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14861" max="14863" width="9.140625" style="2"/>
+    <col min="14864" max="14864" width="16" style="2" customWidth="1"/>
+    <col min="14865" max="14870" width="9.140625" style="2"/>
+    <col min="14871" max="14871" width="11" style="2" customWidth="1"/>
+    <col min="14872" max="15111" width="9.140625" style="2"/>
+    <col min="15112" max="15112" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15113" max="15115" width="9.140625" style="2"/>
+    <col min="15116" max="15116" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15117" max="15119" width="9.140625" style="2"/>
+    <col min="15120" max="15120" width="16" style="2" customWidth="1"/>
+    <col min="15121" max="15126" width="9.140625" style="2"/>
+    <col min="15127" max="15127" width="11" style="2" customWidth="1"/>
+    <col min="15128" max="15367" width="9.140625" style="2"/>
+    <col min="15368" max="15368" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15369" max="15371" width="9.140625" style="2"/>
+    <col min="15372" max="15372" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15373" max="15375" width="9.140625" style="2"/>
+    <col min="15376" max="15376" width="16" style="2" customWidth="1"/>
+    <col min="15377" max="15382" width="9.140625" style="2"/>
+    <col min="15383" max="15383" width="11" style="2" customWidth="1"/>
+    <col min="15384" max="15623" width="9.140625" style="2"/>
+    <col min="15624" max="15624" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15625" max="15627" width="9.140625" style="2"/>
+    <col min="15628" max="15628" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15629" max="15631" width="9.140625" style="2"/>
+    <col min="15632" max="15632" width="16" style="2" customWidth="1"/>
+    <col min="15633" max="15638" width="9.140625" style="2"/>
+    <col min="15639" max="15639" width="11" style="2" customWidth="1"/>
+    <col min="15640" max="15879" width="9.140625" style="2"/>
+    <col min="15880" max="15880" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15881" max="15883" width="9.140625" style="2"/>
+    <col min="15884" max="15884" width="19.7109375" style="2" customWidth="1"/>
+    <col min="15885" max="15887" width="9.140625" style="2"/>
+    <col min="15888" max="15888" width="16" style="2" customWidth="1"/>
+    <col min="15889" max="15894" width="9.140625" style="2"/>
+    <col min="15895" max="15895" width="11" style="2" customWidth="1"/>
+    <col min="15896" max="16135" width="9.140625" style="2"/>
+    <col min="16136" max="16136" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16137" max="16139" width="9.140625" style="2"/>
+    <col min="16140" max="16140" width="19.7109375" style="2" customWidth="1"/>
+    <col min="16141" max="16143" width="9.140625" style="2"/>
+    <col min="16144" max="16144" width="16" style="2" customWidth="1"/>
+    <col min="16145" max="16150" width="9.140625" style="2"/>
+    <col min="16151" max="16151" width="11" style="2" customWidth="1"/>
+    <col min="16152" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-    </row>
-    <row r="3" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+    </row>
+    <row r="3" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2599,18 +2610,19 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="90" t="s">
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2627,20 +2639,21 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="90" t="s">
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2650,57 +2663,60 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:51" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="91" t="s">
+    <row r="7" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:52" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="93" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="96" t="s">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="99" t="s">
+      <c r="M8" s="104"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="100" t="s">
+      <c r="P8" s="103"/>
+      <c r="Q8" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="101"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="93" t="s">
+      <c r="R8" s="108"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="94"/>
-      <c r="V8" s="96" t="s">
+      <c r="U8" s="103"/>
+      <c r="V8" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="96" t="s">
+      <c r="W8" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="106" t="s">
+      <c r="X8" s="92" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="92"/>
+      <c r="Y8" s="116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="101"/>
       <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
@@ -2728,7 +2744,7 @@
       <c r="J9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="97"/>
+      <c r="K9" s="91"/>
       <c r="L9" s="5" t="s">
         <v>60</v>
       </c>
@@ -2759,11 +2775,14 @@
       <c r="U9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="107"/>
-    </row>
-    <row r="10" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2836,8 +2855,11 @@
       <c r="X10" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" s="8" customFormat="1" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y10" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" s="8" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -2862,7 +2884,7 @@
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
       <c r="X11" s="28"/>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="28"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -2889,9 +2911,10 @@
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
-    </row>
-    <row r="12" spans="1:51" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:51" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AZ11" s="7"/>
+    </row>
+    <row r="12" spans="1:52" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:52" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -2905,35 +2928,35 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:51" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:52" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="109"/>
-    </row>
-    <row r="15" spans="1:51" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
+    </row>
+    <row r="15" spans="1:52" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="112"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2956,30 +2979,31 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-    </row>
-    <row r="16" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="89"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="10"/>
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -2990,8 +3014,9 @@
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
-    </row>
-    <row r="17" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AJ16" s="10"/>
+    </row>
+    <row r="17" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3002,18 +3027,18 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="9"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -3024,82 +3049,75 @@
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
-    </row>
-    <row r="18" spans="1:35" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="85" t="s">
+      <c r="AJ17" s="9"/>
+    </row>
+    <row r="18" spans="1:36" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="33"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-    </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+    </row>
+    <row r="19" spans="1:36" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="35" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="87"/>
+      <c r="G19" s="114"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="35"/>
-      <c r="K19" s="88" t="s">
+      <c r="K19" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="88"/>
-    </row>
-    <row r="20" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="33" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="34" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="35" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="36" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="37" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="38" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="39" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="40" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
-    <row r="41" s="7" customFormat="1" ht="11.5" x14ac:dyDescent="0.35"/>
+      <c r="L19" s="115"/>
+    </row>
+    <row r="20" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="33" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="34" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="35" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="36" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="37" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="38" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="39" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="40" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="41" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="R16:X16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:X17"/>
-    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A2:Y2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -3115,13 +3133,21 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>